--- a/business/online_details.xlsx
+++ b/business/online_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="21075" windowHeight="8070"/>
+    <workbookView xWindow="240" yWindow="270" windowWidth="21075" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="item_order_update" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="card details" sheetId="4" r:id="rId3"/>
     <sheet name="all_items_details" sheetId="5" r:id="rId4"/>
     <sheet name="card_details_users" sheetId="6" r:id="rId5"/>
-    <sheet name="online_emi_details_2" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'card details'!$A$1:$R$27</definedName>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="98">
   <si>
     <t>user</t>
   </si>
@@ -300,9 +299,6 @@
     <t>last date of payment</t>
   </si>
   <si>
-    <t>amol citi bank</t>
-  </si>
-  <si>
     <t>amol hdfc</t>
   </si>
   <si>
@@ -316,9 +312,6 @@
   </si>
   <si>
     <t xml:space="preserve">bill </t>
-  </si>
-  <si>
-    <t>sev</t>
   </si>
   <si>
     <t>pamkaj</t>
@@ -815,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +867,7 @@
         <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1296,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="Q17" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1546,7 +1539,7 @@
         <v>18</v>
       </c>
       <c r="Q27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1847,7 +1840,7 @@
         <v>26</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="7">
         <v>8002559782</v>
@@ -1859,7 +1852,7 @@
         <v>22800</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
         <v>28</v>
@@ -1890,7 +1883,7 @@
         <v>57376</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I49" t="s">
         <v>28</v>
@@ -1918,7 +1911,7 @@
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3714,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,69 +3945,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2">
-        <f>9562.74*6</f>
-        <v>57376.44</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <f>C2/D2</f>
-        <v>9562.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/business/online_details.xlsx
+++ b/business/online_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="270" windowWidth="21075" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="330" windowWidth="21075" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="item_order_update" sheetId="1" r:id="rId1"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>

--- a/business/online_details.xlsx
+++ b/business/online_details.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="21075" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="330" windowWidth="20730" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="item_order_update" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,17 @@
     <sheet name="card details" sheetId="4" r:id="rId3"/>
     <sheet name="all_items_details" sheetId="5" r:id="rId4"/>
     <sheet name="card_details_users" sheetId="6" r:id="rId5"/>
+    <sheet name="emi_details_till_19_nov" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'card details'!$A$1:$R$27</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="114">
   <si>
     <t>user</t>
   </si>
@@ -200,9 +201,6 @@
     <t xml:space="preserve">susheel </t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>redmi6  pro 3/32</t>
   </si>
   <si>
@@ -315,13 +313,64 @@
   </si>
   <si>
     <t>pamkaj</t>
+  </si>
+  <si>
+    <t>6 emi</t>
+  </si>
+  <si>
+    <t>inamul</t>
+  </si>
+  <si>
+    <t>note 6 pro 3/32</t>
+  </si>
+  <si>
+    <t>note 6 pro 4/64</t>
+  </si>
+  <si>
+    <t>redmi6 3/32</t>
+  </si>
+  <si>
+    <t>redmi6 3/64</t>
+  </si>
+  <si>
+    <t>jha.pankja67@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>amoount</t>
+  </si>
+  <si>
+    <t>dop</t>
+  </si>
+  <si>
+    <t>hdfc</t>
+  </si>
+  <si>
+    <t>citi</t>
+  </si>
+  <si>
+    <t>sbi</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>6  emi</t>
+  </si>
+  <si>
+    <t>diwali offer</t>
+  </si>
+  <si>
+    <t>redmi 3/32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,8 +413,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,12 +455,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -488,11 +538,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,7 +552,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,7 +647,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -629,7 +681,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -805,1159 +856,1396 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>8553752095</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10999</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>22459</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <v>22459.86</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <f>22985/3</f>
         <v>7661.666666666667</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>9</v>
       </c>
-      <c r="P2" s="9">
+      <c r="Q2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:18">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>12999</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:18">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>988</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:18">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8553752095</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>10000</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1000</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>17</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>14</v>
       </c>
-      <c r="P5" s="9">
+      <c r="Q5" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="1:18">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:18">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7004104922</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>12999</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <v>10000</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1000</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>17</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>15</v>
       </c>
-      <c r="P7" s="9">
+      <c r="Q7" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:18">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>9999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>18416</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>18416</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f>18416/6</f>
         <v>3069.3333333333335</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>16</v>
       </c>
-      <c r="P8" s="9">
+      <c r="Q8" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="D9" s="1" t="s">
+    <row r="9" spans="1:18">
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>12999</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:18">
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>8553752095</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11">
+        <v>14999</v>
+      </c>
+      <c r="G11">
+        <v>1500</v>
+      </c>
+      <c r="I11" s="9">
+        <v>11267</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>8553752095</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12">
+        <v>9999</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>8553752095</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <v>7999</v>
+      </c>
+      <c r="G13">
+        <v>800</v>
+      </c>
+      <c r="I13" s="9">
+        <v>7230</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="5">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14">
+        <v>7999</v>
+      </c>
+      <c r="G14">
+        <v>800</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>8</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="C15" s="4"/>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15">
+        <v>7999</v>
+      </c>
+      <c r="G15">
+        <v>800</v>
+      </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>8553752095</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16">
+        <v>7999</v>
+      </c>
+      <c r="G16">
+        <v>800</v>
+      </c>
+      <c r="I16" s="9">
+        <v>6933</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>7004104922</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <v>7999</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>10</v>
+      </c>
+      <c r="R17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>7004104922</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>18990</v>
+      </c>
+      <c r="G18">
+        <v>1500</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10">
+        <v>9341223138</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>13990</v>
+      </c>
+      <c r="G19">
+        <v>1400</v>
+      </c>
+      <c r="I19" s="9">
+        <v>12127</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="12">
+        <v>7004104922</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="12">
+        <v>7004104922</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>7004104922</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>9800</v>
+      </c>
+      <c r="G22">
+        <v>750</v>
+      </c>
+      <c r="I22" s="9">
+        <v>17816</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="C23" s="4"/>
+      <c r="E23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23">
+        <v>9800</v>
+      </c>
+      <c r="G23">
+        <v>750</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="P23">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="5">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <v>18990</v>
+      </c>
+      <c r="G24">
+        <v>1500</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>16</v>
+      </c>
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="5">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>12999</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>17</v>
+      </c>
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="C26" s="6"/>
+      <c r="E26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F26">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>12999</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>18</v>
+      </c>
+      <c r="R27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="C28" s="6"/>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="5">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>8553752095</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>9999</v>
+      </c>
+      <c r="I29" s="9">
+        <v>32744</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="5">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>8553752095</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>12999</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="C31" s="6"/>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31">
+        <v>12999</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="5">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="8">
+        <v>8002559782</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>9999</v>
+      </c>
+      <c r="I32">
+        <v>30614</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="C33" s="6"/>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="7">
+        <v>11347</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="P33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="C34" s="6"/>
+      <c r="E34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34">
+        <v>9999</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="P34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="5">
         <v>22</v>
       </c>
-      <c r="O10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>8553752095</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11">
+      <c r="C35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>9122200271</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>12999</v>
+      </c>
+      <c r="I35">
+        <v>21187</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P35">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="C36" s="6"/>
+      <c r="E36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36">
+        <v>12999</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="P36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="5">
+        <v>23</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37">
         <v>14999</v>
       </c>
-      <c r="F11">
-        <v>1500</v>
-      </c>
-      <c r="H11" s="9">
-        <v>11267</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>8553752095</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12">
-        <v>9999</v>
-      </c>
-      <c r="F12">
-        <v>300</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="G37">
+        <v>750</v>
+      </c>
+      <c r="I37">
+        <v>24549</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>23</v>
+      </c>
+      <c r="R37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="E38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38">
+        <v>13990</v>
+      </c>
+      <c r="G38">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="5">
+        <v>24</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>8553752095</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13">
-        <v>7999</v>
-      </c>
-      <c r="F13">
-        <v>800</v>
-      </c>
-      <c r="H13" s="9">
-        <v>7230</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13">
-        <v>6</v>
-      </c>
-      <c r="P13" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14">
-        <v>7999</v>
-      </c>
-      <c r="F14">
-        <v>800</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14">
-        <v>20</v>
-      </c>
-      <c r="P14" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
-      <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15">
-        <v>7999</v>
-      </c>
-      <c r="F15">
-        <v>800</v>
-      </c>
-      <c r="N15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>8553752095</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16">
-        <v>7999</v>
-      </c>
-      <c r="F16">
-        <v>800</v>
-      </c>
-      <c r="H16" s="9">
-        <v>6933</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16">
-        <v>7</v>
-      </c>
-      <c r="P16" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>7004104922</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17">
-        <v>7999</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="D39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>7004104922</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18">
-        <v>18990</v>
-      </c>
-      <c r="F18">
-        <v>1500</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="11">
-        <v>9341223138</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19">
-        <v>13990</v>
-      </c>
-      <c r="F19">
-        <v>1400</v>
-      </c>
-      <c r="H19" s="9">
-        <v>12127</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>13</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13">
-        <v>7004104922</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>14</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="13">
-        <v>7004104922</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22">
-        <v>7004104922</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22">
-        <v>9800</v>
-      </c>
-      <c r="F22">
-        <v>750</v>
-      </c>
-      <c r="H22" s="9">
-        <v>17816</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22">
-        <v>18</v>
-      </c>
-      <c r="P22" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="D23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23">
-        <v>9800</v>
-      </c>
-      <c r="F23">
-        <v>750</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="O23">
-        <v>19</v>
-      </c>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>16</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24">
-        <v>18990</v>
-      </c>
-      <c r="F24">
-        <v>1500</v>
-      </c>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24">
-        <v>22</v>
-      </c>
-      <c r="P24" s="6">
-        <v>16</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>17</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25">
-        <v>12999</v>
-      </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6"/>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26">
+      <c r="E39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39">
         <v>10999</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>18</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>12999</v>
-      </c>
-      <c r="F27">
-        <v>2000</v>
-      </c>
-      <c r="I27" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="6">
-        <v>18</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6"/>
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28">
-        <v>10999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>8553752095</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>9999</v>
-      </c>
-      <c r="H29" s="9">
-        <v>32744</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29">
-        <v>3</v>
-      </c>
-      <c r="P29" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>20</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>8553752095</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30">
-        <v>12999</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6"/>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31">
-        <v>12999</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="O31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>21</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="8">
-        <v>8002559782</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>9999</v>
-      </c>
-      <c r="H32">
-        <v>30614</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32">
-        <v>23</v>
-      </c>
-      <c r="P32" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="6"/>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="7">
-        <v>11347</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="O33">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="6"/>
-      <c r="D34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34">
-        <v>9999</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="O34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>22</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>9122200271</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35">
-        <v>12999</v>
-      </c>
-      <c r="H35">
-        <v>21187</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35">
-        <v>11</v>
-      </c>
-      <c r="P35" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="6"/>
-      <c r="D36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36">
-        <v>12999</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="O36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>23</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37">
-        <v>14999</v>
-      </c>
-      <c r="F37">
-        <v>750</v>
-      </c>
-      <c r="H37">
-        <v>24549</v>
-      </c>
-      <c r="I37" t="s">
-        <v>36</v>
-      </c>
-      <c r="P37" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38">
-        <v>13990</v>
-      </c>
-      <c r="F38">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>24</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39">
-        <v>10999</v>
-      </c>
-      <c r="H39">
+      <c r="I39">
         <f>10999-1020</f>
         <v>9979</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>37</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>13</v>
       </c>
-      <c r="P39" s="9">
+      <c r="Q39" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+    <row r="40" spans="1:18">
+      <c r="A40" s="5">
         <v>25</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>853752095</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>9999</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>100</v>
       </c>
-      <c r="H40" s="9">
+      <c r="I40" s="9">
         <v>8999</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>38</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>10</v>
       </c>
-      <c r="P40" s="9">
+      <c r="Q40" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F41" s="1">
+    <row r="41" spans="1:18">
+      <c r="G41" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F42" s="9">
-        <f>SUM(F2:F41)</f>
+    <row r="42" spans="1:18">
+      <c r="G42" s="9">
+        <f>SUM(G2:G41)</f>
         <v>22500</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:18">
+      <c r="A46" s="5">
         <v>26</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="7">
+        <v>8002559782</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>22800</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="5">
+        <v>27</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1">
+        <v>57376</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="C50" s="5"/>
+      <c r="D50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="C51" s="5"/>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="C52" s="5"/>
+      <c r="D52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="7">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="C53" s="5"/>
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10999</v>
+      </c>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="C55" s="5"/>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="C56" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10999</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="C57" s="5"/>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1">
+        <v>9499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="C58" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10999</v>
+      </c>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="C59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="1">
+        <v>10999</v>
+      </c>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="C60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1">
+        <v>12999</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="C61" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8000</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="C62" s="5"/>
+      <c r="D62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="1">
+        <v>9500</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="5">
+        <v>28</v>
+      </c>
+      <c r="B63" s="19">
+        <v>43425</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>9999</v>
+      </c>
+      <c r="G63">
+        <v>28498</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>97</v>
+      </c>
+      <c r="J63">
+        <v>7903328917</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="5">
+        <v>29</v>
+      </c>
+      <c r="B66" s="19">
+        <v>43425</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>9999</v>
+      </c>
+      <c r="G66">
+        <v>19000</v>
+      </c>
+      <c r="H66" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+      <c r="J66">
         <v>8002559782</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>22800</v>
-      </c>
-      <c r="F46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" t="s">
+    </row>
+    <row r="67" spans="1:10">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>27</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1">
-        <v>57376</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I49" t="s">
-        <v>28</v>
-      </c>
-      <c r="P49" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="B68" s="19">
+        <v>43425</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68">
+        <v>8499</v>
+      </c>
+      <c r="G68">
+        <v>16998</v>
+      </c>
+      <c r="H68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s">
+        <v>111</v>
+      </c>
+      <c r="J68">
+        <v>80002559782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69">
+        <v>8499</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B18" r:id="rId10"/>
-    <hyperlink ref="B19" r:id="rId11"/>
-    <hyperlink ref="B20" r:id="rId12"/>
-    <hyperlink ref="B21" r:id="rId13"/>
-    <hyperlink ref="B22" r:id="rId14"/>
-    <hyperlink ref="B29" r:id="rId15"/>
-    <hyperlink ref="B30" r:id="rId16"/>
-    <hyperlink ref="B32" r:id="rId17"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C29" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="C32" r:id="rId17"/>
+    <hyperlink ref="C63" r:id="rId18"/>
+    <hyperlink ref="C66" r:id="rId19"/>
+    <hyperlink ref="C68" r:id="rId20"/>
+    <hyperlink ref="C54" r:id="rId21"/>
+    <hyperlink ref="C56" r:id="rId22"/>
+    <hyperlink ref="C58" r:id="rId23"/>
+    <hyperlink ref="C59" r:id="rId24"/>
+    <hyperlink ref="C60" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -1968,7 +2256,7 @@
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1976,19 +2264,19 @@
         <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2005,7 +2293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2025,7 +2313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2042,7 +2330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2062,7 +2350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2079,7 +2367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2096,7 +2384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2113,7 +2401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2130,7 +2418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2147,7 +2435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2167,7 +2455,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2187,7 +2475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2207,7 +2495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2224,7 +2512,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2241,7 +2529,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2258,7 +2546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2278,7 +2566,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2295,7 +2583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2312,7 +2600,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2329,7 +2617,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2346,7 +2634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2363,7 +2651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2380,7 +2668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2397,7 +2685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2414,7 +2702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2437,14 +2725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -2461,30 +2749,30 @@
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2506,7 +2794,7 @@
         <v>7661.98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2526,7 +2814,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2546,7 +2834,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2566,7 +2854,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2586,12 +2874,12 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <f>3069.49*6</f>
@@ -2608,7 +2896,7 @@
         <v>3069.49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2629,12 +2917,12 @@
         <v>1949.8333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="5">
         <v>8639</v>
@@ -2649,7 +2937,7 @@
         <v>8639</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2670,7 +2958,7 @@
         <v>1216.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2691,7 +2979,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2712,7 +3000,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2733,7 +3021,7 @@
         <v>1333.3333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2754,17 +3042,17 @@
         <v>2248.3333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:8">
+      <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>0</v>
       </c>
       <c r="E15">
@@ -2774,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2798,12 +3086,12 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>13490</v>
@@ -2819,12 +3107,12 @@
         <v>2248.3333333333335</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>21998</v>
@@ -2840,12 +3128,12 @@
         <v>3666.3333333333335</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="5">
         <v>22000</v>
@@ -2857,7 +3145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2884,7 +3172,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2911,12 +3199,12 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>31785</v>
@@ -2938,7 +3226,7 @@
         <v>13990</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2959,13 +3247,13 @@
         <v>3666.3333333333335</v>
       </c>
       <c r="Q23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R23">
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2986,18 +3274,18 @@
         <v>4248.166666666667</v>
       </c>
       <c r="Q24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R24">
         <v>11985</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>9979</v>
@@ -3012,13 +3300,13 @@
         <v>9979</v>
       </c>
       <c r="Q25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R25">
         <v>9000</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3042,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="C27">
         <f>SUM(C2:C26)</f>
         <v>344960.88</v>
@@ -3056,7 +3344,7 @@
         <f>SUM(F2:F26)</f>
         <v>48955.30333333333</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <f>SUM(G3:G26)</f>
         <v>43215</v>
       </c>
@@ -3068,14 +3356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -3086,27 +3374,27 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3123,7 +3411,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3140,7 +3428,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3157,7 +3445,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3174,7 +3462,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3191,7 +3479,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3208,7 +3496,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3216,7 +3504,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>12999</v>
@@ -3225,7 +3513,7 @@
         <v>14999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3233,7 +3521,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>8999</v>
@@ -3242,7 +3530,7 @@
         <v>8999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3250,7 +3538,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>7999</v>
@@ -3259,7 +3547,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3267,7 +3555,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>7999</v>
@@ -3276,7 +3564,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3284,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>7999</v>
@@ -3293,7 +3581,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3301,7 +3589,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>7999</v>
@@ -3310,7 +3598,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3318,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>7999</v>
@@ -3327,7 +3615,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3335,7 +3623,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15">
         <v>15990</v>
@@ -3344,7 +3632,7 @@
         <v>18990</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3352,7 +3640,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>13990</v>
@@ -3361,7 +3649,7 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3369,7 +3657,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17">
         <v>9800</v>
@@ -3378,7 +3666,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3386,7 +3674,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>9800</v>
@@ -3395,7 +3683,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3403,7 +3691,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19">
         <v>15990</v>
@@ -3412,7 +3700,7 @@
         <v>18990</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3429,7 +3717,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3437,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>10999</v>
@@ -3446,7 +3734,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3463,7 +3751,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3471,7 +3759,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>10999</v>
@@ -3480,7 +3768,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3497,7 +3785,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3514,7 +3802,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3531,7 +3819,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3548,7 +3836,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3565,7 +3853,7 @@
         <v>11347</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3582,7 +3870,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3599,7 +3887,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3616,7 +3904,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3624,7 +3912,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32">
         <v>12999</v>
@@ -3633,7 +3921,7 @@
         <v>14999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3641,7 +3929,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>13990</v>
@@ -3650,7 +3938,7 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3667,7 +3955,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3684,7 +3972,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="D36" s="4">
         <f>SUM(D2:D35)</f>
         <v>375518</v>
@@ -3704,25 +3992,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -3734,10 +4022,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3755,12 +4043,12 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>61986</v>
@@ -3772,7 +4060,7 @@
         <v>10331</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3789,7 +4077,7 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3808,7 +4096,7 @@
         <v>7661.98</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3826,12 +4114,12 @@
         <v>4248.166666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5">
         <v>67273</v>
@@ -3843,12 +4131,12 @@
         <v>11212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <f>3069.49*6</f>
@@ -3862,18 +4150,18 @@
         <v>3069.49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="E9" s="4">
         <f>SUM(E2:E8)</f>
         <v>48954.636666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>18639</v>
@@ -3885,12 +4173,12 @@
         <v>18639</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>9979</v>
@@ -3902,7 +4190,7 @@
         <v>9979</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3919,7 +4207,7 @@
         <v>4597</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3936,10 +4224,641 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="E15" s="4">
         <f>SUM(E11:E14)</f>
         <v>43215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2">
+        <v>2441.5500000000002</v>
+      </c>
+      <c r="D2" s="21">
+        <v>43408</v>
+      </c>
+      <c r="E2" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F2" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G2" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H2" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I2" s="19">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3">
+        <v>3193.56</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F3" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G3" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H3" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I3" s="19">
+        <v>43194</v>
+      </c>
+      <c r="J3" s="19">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>9499</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F4" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G4" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H4" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I4" s="19">
+        <v>43194</v>
+      </c>
+      <c r="J4" s="19">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>7709.15</v>
+      </c>
+      <c r="D5" s="21">
+        <v>43408</v>
+      </c>
+      <c r="E5" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F5" s="19">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6">
+        <v>1333.12</v>
+      </c>
+      <c r="D6" s="19">
+        <v>43426</v>
+      </c>
+      <c r="E6" s="19">
+        <v>43456</v>
+      </c>
+      <c r="F6" s="19">
+        <v>43487</v>
+      </c>
+      <c r="G6" s="19">
+        <v>43518</v>
+      </c>
+      <c r="H6" s="19">
+        <v>43546</v>
+      </c>
+      <c r="I6" s="19">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7">
+        <v>2248.17</v>
+      </c>
+      <c r="D7" s="19">
+        <v>43426</v>
+      </c>
+      <c r="E7" s="19">
+        <v>43456</v>
+      </c>
+      <c r="F7" s="19">
+        <v>43487</v>
+      </c>
+      <c r="G7" s="19">
+        <v>43518</v>
+      </c>
+      <c r="H7" s="19">
+        <v>43546</v>
+      </c>
+      <c r="I7" s="19">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>3082.83</v>
+      </c>
+      <c r="D8" s="19">
+        <v>43426</v>
+      </c>
+      <c r="E8" s="19">
+        <v>43456</v>
+      </c>
+      <c r="F8" s="19">
+        <v>43487</v>
+      </c>
+      <c r="G8" s="19">
+        <v>43518</v>
+      </c>
+      <c r="H8" s="19">
+        <v>43546</v>
+      </c>
+      <c r="I8" s="19">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>3666.33</v>
+      </c>
+      <c r="D9" s="19">
+        <v>43426</v>
+      </c>
+      <c r="E9" s="19">
+        <v>43456</v>
+      </c>
+      <c r="F9" s="19">
+        <v>43487</v>
+      </c>
+      <c r="G9" s="19">
+        <v>43518</v>
+      </c>
+      <c r="H9" s="19">
+        <v>43546</v>
+      </c>
+      <c r="I9" s="19">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10">
+        <v>2098.4899999999998</v>
+      </c>
+      <c r="E10" s="19">
+        <v>43435</v>
+      </c>
+      <c r="F10" s="19">
+        <v>43466</v>
+      </c>
+      <c r="G10" s="19">
+        <v>43497</v>
+      </c>
+      <c r="H10" s="19">
+        <v>43525</v>
+      </c>
+      <c r="I10" s="19">
+        <v>43556</v>
+      </c>
+      <c r="J10" s="19">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <v>2248.17</v>
+      </c>
+      <c r="E11" s="19">
+        <v>43435</v>
+      </c>
+      <c r="F11" s="19">
+        <v>43466</v>
+      </c>
+      <c r="G11" s="19">
+        <v>43497</v>
+      </c>
+      <c r="H11" s="19">
+        <v>43525</v>
+      </c>
+      <c r="I11" s="19">
+        <v>43556</v>
+      </c>
+      <c r="J11" s="19">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12">
+        <v>3666.33</v>
+      </c>
+      <c r="E12" s="19">
+        <v>43435</v>
+      </c>
+      <c r="F12" s="19">
+        <v>43466</v>
+      </c>
+      <c r="G12" s="19">
+        <v>43497</v>
+      </c>
+      <c r="H12" s="19">
+        <v>43525</v>
+      </c>
+      <c r="I12" s="19">
+        <v>43556</v>
+      </c>
+      <c r="J12" s="19">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13">
+        <v>5297.63</v>
+      </c>
+      <c r="E13" s="19">
+        <v>43435</v>
+      </c>
+      <c r="F13" s="19">
+        <v>43466</v>
+      </c>
+      <c r="G13" s="19">
+        <v>43497</v>
+      </c>
+      <c r="H13" s="19">
+        <v>43525</v>
+      </c>
+      <c r="I13" s="19">
+        <v>43556</v>
+      </c>
+      <c r="J13" s="19">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14">
+        <v>3106.63</v>
+      </c>
+      <c r="D14" s="22">
+        <v>43408</v>
+      </c>
+      <c r="E14" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F14" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G14" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H14" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I14" s="19">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15">
+        <v>4357.45</v>
+      </c>
+      <c r="D15" s="22">
+        <v>43408</v>
+      </c>
+      <c r="E15" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F15" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G15" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H15" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I15" s="19">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16">
+        <v>3504.32</v>
+      </c>
+      <c r="E16" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F16" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G16" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H16" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I16" s="19">
+        <v>43194</v>
+      </c>
+      <c r="J16" s="19">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
+        <v>1949.67</v>
+      </c>
+      <c r="D17" s="21">
+        <v>43408</v>
+      </c>
+      <c r="E17" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F17" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G17" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H17" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I17" s="19">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>1199.71</v>
+      </c>
+      <c r="D18" s="21">
+        <v>43408</v>
+      </c>
+      <c r="E18" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F18" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G18" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H18" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I18" s="19">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19">
+        <v>1216.49</v>
+      </c>
+      <c r="D19" s="21">
+        <v>43408</v>
+      </c>
+      <c r="E19" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F19" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G19" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H19" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I19" s="19">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20">
+        <v>5666.16</v>
+      </c>
+      <c r="E20" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F20" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G20" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H20" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I20" s="19">
+        <v>43194</v>
+      </c>
+      <c r="J20" s="19">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21">
+        <v>1766.48</v>
+      </c>
+      <c r="E21" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F21" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G21" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H21" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I21" s="19">
+        <v>43194</v>
+      </c>
+      <c r="J21" s="19">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22">
+        <v>1649.85</v>
+      </c>
+      <c r="E22" s="19">
+        <v>43438</v>
+      </c>
+      <c r="F22" s="19">
+        <v>43104</v>
+      </c>
+      <c r="G22" s="19">
+        <v>43135</v>
+      </c>
+      <c r="H22" s="19">
+        <v>43163</v>
+      </c>
+      <c r="I22" s="19">
+        <v>43194</v>
+      </c>
+      <c r="J22" s="19">
+        <v>43224</v>
       </c>
     </row>
   </sheetData>

--- a/business/online_details.xlsx
+++ b/business/online_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="20730" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="330" windowWidth="20730" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="item_order_update" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="107">
   <si>
     <t>user</t>
   </si>
@@ -33,9 +33,6 @@
     <t>card</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -45,12 +42,6 @@
     <t>redmi6 pro 3/32</t>
   </si>
   <si>
-    <t>shoes</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>praveen</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
     <t>devendra</t>
   </si>
   <si>
-    <t>cash back</t>
-  </si>
-  <si>
     <t>ikram.mnnit09@gmail.com</t>
   </si>
   <si>
@@ -72,15 +60,6 @@
     <t>rahul</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>amazon pay</t>
-  </si>
-  <si>
-    <t>cash back status</t>
-  </si>
-  <si>
     <t>devendra.anchal@gmail.com</t>
   </si>
   <si>
@@ -120,9 +99,6 @@
     <t>vivo v9</t>
   </si>
   <si>
-    <t>Pankaj</t>
-  </si>
-  <si>
     <t>redmi 6 pro 4/64</t>
   </si>
   <si>
@@ -195,9 +171,6 @@
     <t xml:space="preserve">devendra </t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">susheel </t>
   </si>
   <si>
@@ -309,12 +282,6 @@
     <t>5700 cashback in january</t>
   </si>
   <si>
-    <t xml:space="preserve">bill </t>
-  </si>
-  <si>
-    <t>pamkaj</t>
-  </si>
-  <si>
     <t>6 emi</t>
   </si>
   <si>
@@ -364,6 +331,18 @@
   </si>
   <si>
     <t>redmi 3/32</t>
+  </si>
+  <si>
+    <t>jha.pankaj67@gmail.com</t>
+  </si>
+  <si>
+    <t>emis</t>
+  </si>
+  <si>
+    <t>nuber</t>
+  </si>
+  <si>
+    <t>cashback</t>
   </si>
 </sst>
 </file>
@@ -527,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -557,6 +536,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -857,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A39" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,1371 +849,1208 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.75" customHeight="1">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10999</v>
+      </c>
+      <c r="F2" s="9">
+        <v>22459.86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2">
         <v>8553752095</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>10999</v>
-      </c>
-      <c r="G2">
+      <c r="L2">
         <v>2000</v>
       </c>
-      <c r="H2">
-        <v>22459</v>
-      </c>
-      <c r="I2" s="9">
-        <v>22459.86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2">
+      <c r="M2">
         <f>22985/3</f>
         <v>7661.666666666667</v>
       </c>
-      <c r="P2">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>10999</v>
+      </c>
+      <c r="F4" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>8553752095</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>12999</v>
       </c>
-      <c r="P3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>988</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>8553752095</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>10999</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="F5" s="9">
         <v>10000</v>
       </c>
-      <c r="J5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="L5">
-        <v>1000</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="J5">
+        <v>7004104922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>9999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>18416</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="P5">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>7004104922</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>12999</v>
-      </c>
-      <c r="H7">
-        <v>12999</v>
-      </c>
-      <c r="I7" s="9">
-        <v>10000</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>1000</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>9999</v>
-      </c>
-      <c r="G8">
+      <c r="L6">
         <v>2000</v>
       </c>
-      <c r="H8">
-        <v>18416</v>
-      </c>
-      <c r="I8" s="9">
-        <v>18416</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8">
+      <c r="M6">
         <f>18416/6</f>
         <v>3069.3333333333335</v>
       </c>
-      <c r="P8">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="18" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="D8" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>14999</v>
+      </c>
+      <c r="F9" s="9">
+        <v>11267</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>8553752095</v>
+      </c>
+      <c r="L9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>9999</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>8553752095</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>7999</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7230</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>8553752095</v>
+      </c>
+      <c r="L11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>7999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12">
+        <v>800</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>7999</v>
+      </c>
+      <c r="L13">
+        <v>800</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>7999</v>
+      </c>
+      <c r="F14" s="9">
+        <v>6933</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>8553752095</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14">
+        <v>800</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>7999</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>7004104922</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>18990</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>7004104922</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>13990</v>
+      </c>
+      <c r="F17" s="9">
+        <v>12127</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="10">
+        <v>9341223138</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="12">
+        <v>7004104922</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="12">
+        <v>7004104922</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20">
+        <v>9800</v>
+      </c>
+      <c r="F20" s="9">
+        <v>17816</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>7004104922</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <v>9800</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5">
         <v>16</v>
       </c>
-      <c r="Q8" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="E9" s="1" t="s">
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>18990</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="5">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>12999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="C24" s="5"/>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="5">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>12999</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="C26" s="5"/>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="5">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>9999</v>
+      </c>
+      <c r="F27" s="9">
+        <v>32744</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27">
+        <v>8553752095</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="5">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>12999</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="J28">
+        <v>8553752095</v>
+      </c>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="C29" s="5"/>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>12999</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="5">
         <v>21</v>
       </c>
-      <c r="F9">
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>9999</v>
+      </c>
+      <c r="F30">
+        <v>30614</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="8">
+        <v>8002559782</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="C31" s="5"/>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="7">
+        <v>11347</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" s="5"/>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>9999</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="5">
+        <v>22</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
         <v>12999</v>
       </c>
-      <c r="P9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="5">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>8553752095</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11">
+      <c r="F33">
+        <v>21187</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>9122200271</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="C34" s="5"/>
+      <c r="D34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>12999</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="5">
+        <v>23</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35">
         <v>14999</v>
       </c>
-      <c r="G11">
-        <v>1500</v>
-      </c>
-      <c r="I11" s="9">
-        <v>11267</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>8553752095</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12">
-        <v>9999</v>
-      </c>
-      <c r="G12">
-        <v>300</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="5">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>8553752095</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13">
-        <v>7999</v>
-      </c>
-      <c r="G13">
-        <v>800</v>
-      </c>
-      <c r="I13" s="9">
-        <v>7230</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="5">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="F35">
+        <v>24549</v>
+      </c>
+      <c r="G35" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14">
-        <v>7999</v>
-      </c>
-      <c r="G14">
-        <v>800</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>8</v>
-      </c>
-      <c r="R14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="C15" s="4"/>
-      <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15">
-        <v>7999</v>
-      </c>
-      <c r="G15">
-        <v>800</v>
-      </c>
-      <c r="O15" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="5">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>8553752095</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16">
-        <v>7999</v>
-      </c>
-      <c r="G16">
-        <v>800</v>
-      </c>
-      <c r="I16" s="9">
-        <v>6933</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="5">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>7004104922</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17">
-        <v>7999</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>10</v>
-      </c>
-      <c r="R17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="5">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>7004104922</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18">
-        <v>18990</v>
-      </c>
-      <c r="G18">
-        <v>1500</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="5">
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="D36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <v>13990</v>
+      </c>
+      <c r="L36">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="5">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="10">
-        <v>9341223138</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19">
-        <v>13990</v>
-      </c>
-      <c r="G19">
-        <v>1400</v>
-      </c>
-      <c r="I19" s="9">
-        <v>12127</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="5">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="12">
-        <v>7004104922</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="D37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="5">
-        <v>14</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="12">
-        <v>7004104922</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="5">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>7004104922</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22">
-        <v>9800</v>
-      </c>
-      <c r="G22">
-        <v>750</v>
-      </c>
-      <c r="I22" s="9">
-        <v>17816</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22">
-        <v>18</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="C23" s="4"/>
-      <c r="E23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23">
-        <v>9800</v>
-      </c>
-      <c r="G23">
-        <v>750</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="P23">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="5">
-        <v>16</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24">
-        <v>18990</v>
-      </c>
-      <c r="G24">
-        <v>1500</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>16</v>
-      </c>
-      <c r="R24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="5">
-        <v>17</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25">
-        <v>12999</v>
-      </c>
-      <c r="J25" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>17</v>
-      </c>
-      <c r="R25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="C26" s="6"/>
-      <c r="E26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26">
+      <c r="E37">
         <v>10999</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="5">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27">
-        <v>12999</v>
-      </c>
-      <c r="G27">
-        <v>2000</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>18</v>
-      </c>
-      <c r="R27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="C28" s="6"/>
-      <c r="E28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28">
-        <v>10999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="5">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>8553752095</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29">
-        <v>9999</v>
-      </c>
-      <c r="I29" s="9">
-        <v>32744</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="5">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>8553752095</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30">
-        <v>12999</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="C31" s="6"/>
-      <c r="E31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31">
-        <v>12999</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="P31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="5">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="8">
-        <v>8002559782</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32">
-        <v>9999</v>
-      </c>
-      <c r="I32">
-        <v>30614</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32">
-        <v>23</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="C33" s="6"/>
-      <c r="E33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="7">
-        <v>11347</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="P33">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="C34" s="6"/>
-      <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34">
-        <v>9999</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="P34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="5">
-        <v>22</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>9122200271</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35">
-        <v>12999</v>
-      </c>
-      <c r="I35">
-        <v>21187</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P35">
-        <v>11</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="C36" s="6"/>
-      <c r="E36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36">
-        <v>12999</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="P36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="5">
-        <v>23</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F37">
-        <v>14999</v>
-      </c>
-      <c r="G37">
-        <v>750</v>
-      </c>
-      <c r="I37">
-        <v>24549</v>
-      </c>
-      <c r="J37" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>23</v>
-      </c>
-      <c r="R37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="E38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38">
-        <v>13990</v>
-      </c>
-      <c r="G38">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="5">
-        <v>24</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39">
-        <v>10999</v>
-      </c>
-      <c r="I39">
         <f>10999-1020</f>
         <v>9979</v>
       </c>
-      <c r="J39" t="s">
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="5">
+        <v>25</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>9999</v>
+      </c>
+      <c r="F38" s="9">
+        <v>8999</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38">
+        <v>853752095</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="5">
+        <v>26</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>22800</v>
+      </c>
+      <c r="J39" s="7">
+        <v>8002559782</v>
+      </c>
+      <c r="L39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="5">
+        <v>27</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="1">
+        <v>57376</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="C42" s="5"/>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="C43" s="5"/>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="C44" s="5"/>
+      <c r="D44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="C45" s="5"/>
+      <c r="D45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="5">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10999</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="C47" s="5"/>
+      <c r="D47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="1">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="5">
+        <v>29</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10999</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="C49" s="5"/>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1">
+        <v>9499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="5">
+        <v>30</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10999</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="5">
+        <v>31</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="1">
+        <v>10999</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="5">
+        <v>32</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="1">
+        <v>12999</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="5">
+        <v>33</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="C54" s="5"/>
+      <c r="D54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="1">
+        <v>9500</v>
+      </c>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="5">
+        <v>34</v>
+      </c>
+      <c r="B55" s="19">
+        <v>43425</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>9999</v>
+      </c>
+      <c r="F55">
+        <v>28498</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+      <c r="J55">
+        <v>7903328917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="5">
+        <v>35</v>
+      </c>
+      <c r="B58" s="19">
+        <v>43425</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>9999</v>
+      </c>
+      <c r="F58">
+        <v>19000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>86</v>
+      </c>
+      <c r="J58">
+        <v>8002559782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="7">
+        <v>36</v>
+      </c>
+      <c r="B60" s="22">
+        <v>43425</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="7">
+        <v>8499</v>
+      </c>
+      <c r="F60" s="7">
+        <v>16998</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J60" s="7">
+        <v>8002559782</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="7">
+        <v>8499</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="5">
         <v>37</v>
       </c>
-      <c r="P39">
-        <v>13</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="5">
-        <v>25</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>853752095</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40">
-        <v>9999</v>
-      </c>
-      <c r="G40">
+      <c r="B62" s="19">
+        <v>43425</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>8499</v>
+      </c>
+      <c r="F62">
+        <v>16998</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="9">
-        <v>8999</v>
-      </c>
-      <c r="J40" t="s">
-        <v>38</v>
-      </c>
-      <c r="P40">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="G41" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="G42" s="9">
-        <f>SUM(G2:G41)</f>
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="5">
-        <v>26</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="7">
-        <v>8002559782</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46">
-        <v>22800</v>
-      </c>
-      <c r="G46" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="5">
-        <v>27</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1">
-        <v>57376</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="C50" s="5"/>
-      <c r="D50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="C51" s="5"/>
-      <c r="D51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="C52" s="5"/>
-      <c r="D52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="C53" s="5"/>
-      <c r="D53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="1">
-        <v>10999</v>
-      </c>
-      <c r="H54" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="C55" s="5"/>
-      <c r="D55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="1">
-        <v>10999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="C56" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="1">
-        <v>10999</v>
-      </c>
-      <c r="H56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="C57" s="5"/>
-      <c r="D57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="1">
-        <v>9499</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="C58" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="1">
-        <v>10999</v>
-      </c>
-      <c r="H58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="C59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="1">
-        <v>10999</v>
-      </c>
-      <c r="H59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="C60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="1">
-        <v>12999</v>
-      </c>
-      <c r="H60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="C61" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="1">
-        <v>8000</v>
-      </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="C62" s="5"/>
-      <c r="D62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="1">
-        <v>9500</v>
-      </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="5">
-        <v>28</v>
-      </c>
-      <c r="B63" s="19">
-        <v>43425</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J62">
+        <v>9122200271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E63">
-        <v>9999</v>
-      </c>
-      <c r="G63">
-        <v>28498</v>
-      </c>
-      <c r="H63" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" t="s">
-        <v>97</v>
-      </c>
-      <c r="J63">
-        <v>7903328917</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="C65" s="5"/>
-      <c r="D65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="5">
-        <v>29</v>
-      </c>
-      <c r="B66" s="19">
-        <v>43425</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66">
-        <v>9999</v>
-      </c>
-      <c r="G66">
-        <v>19000</v>
-      </c>
-      <c r="H66" t="s">
-        <v>26</v>
-      </c>
-      <c r="I66" t="s">
-        <v>97</v>
-      </c>
-      <c r="J66">
-        <v>8002559782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="C67" s="5"/>
-      <c r="D67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="5">
-        <v>30</v>
-      </c>
-      <c r="B68" s="19">
-        <v>43425</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68">
-        <v>8499</v>
-      </c>
-      <c r="G68">
-        <v>16998</v>
-      </c>
-      <c r="H68" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" t="s">
-        <v>111</v>
-      </c>
-      <c r="J68">
-        <v>80002559782</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69">
         <v>8499</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="C12" r:id="rId6"/>
-    <hyperlink ref="C13" r:id="rId7"/>
-    <hyperlink ref="C16" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="C18" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
-    <hyperlink ref="C21" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C29" r:id="rId15"/>
-    <hyperlink ref="C30" r:id="rId16"/>
-    <hyperlink ref="C32" r:id="rId17"/>
-    <hyperlink ref="C63" r:id="rId18"/>
-    <hyperlink ref="C66" r:id="rId19"/>
-    <hyperlink ref="C68" r:id="rId20"/>
-    <hyperlink ref="C54" r:id="rId21"/>
-    <hyperlink ref="C56" r:id="rId22"/>
-    <hyperlink ref="C58" r:id="rId23"/>
-    <hyperlink ref="C59" r:id="rId24"/>
-    <hyperlink ref="C60" r:id="rId25"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C14" r:id="rId8"/>
+    <hyperlink ref="C15" r:id="rId9"/>
+    <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C17" r:id="rId11"/>
+    <hyperlink ref="C18" r:id="rId12"/>
+    <hyperlink ref="C19" r:id="rId13"/>
+    <hyperlink ref="C20" r:id="rId14"/>
+    <hyperlink ref="C27" r:id="rId15"/>
+    <hyperlink ref="C28" r:id="rId16"/>
+    <hyperlink ref="C30" r:id="rId17"/>
+    <hyperlink ref="C55" r:id="rId18"/>
+    <hyperlink ref="C58" r:id="rId19"/>
+    <hyperlink ref="C60" r:id="rId20"/>
+    <hyperlink ref="C46" r:id="rId21"/>
+    <hyperlink ref="C48" r:id="rId22"/>
+    <hyperlink ref="C50" r:id="rId23"/>
+    <hyperlink ref="C51" r:id="rId24"/>
+    <hyperlink ref="C52" r:id="rId25"/>
+    <hyperlink ref="C62" r:id="rId26"/>
+    <hyperlink ref="C25" r:id="rId27"/>
+    <hyperlink ref="C37" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -2258,19 +2075,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2281,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>12999</v>
@@ -2290,7 +2107,7 @@
         <v>12999</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2298,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>10999</v>
@@ -2310,7 +2127,7 @@
         <v>10999</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2318,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>8999</v>
@@ -2327,7 +2144,7 @@
         <v>9999</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2335,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>12999</v>
@@ -2347,7 +2164,7 @@
         <v>12999</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2355,7 +2172,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>13990</v>
@@ -2364,7 +2181,7 @@
         <v>15990</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2372,7 +2189,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>8000</v>
@@ -2381,7 +2198,7 @@
         <v>8000</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2389,7 +2206,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>8000</v>
@@ -2398,7 +2215,7 @@
         <v>8000</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2406,7 +2223,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>12999</v>
@@ -2415,7 +2232,7 @@
         <v>12999</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2423,7 +2240,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>10999</v>
@@ -2432,7 +2249,7 @@
         <v>10999</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2440,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>9999</v>
@@ -2449,7 +2266,7 @@
         <v>9999</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -2460,7 +2277,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>10999</v>
@@ -2472,7 +2289,7 @@
         <v>10999</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2480,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>10999</v>
@@ -2492,7 +2309,7 @@
         <v>10999</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2500,7 +2317,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>10999</v>
@@ -2509,7 +2326,7 @@
         <v>10999</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2517,7 +2334,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>10999</v>
@@ -2526,7 +2343,7 @@
         <v>10999</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2534,7 +2351,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>12999</v>
@@ -2543,7 +2360,7 @@
         <v>12999</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2551,7 +2368,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>10999</v>
@@ -2563,7 +2380,7 @@
         <v>10999</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2571,7 +2388,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>9999</v>
@@ -2580,7 +2397,7 @@
         <v>9999</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2588,7 +2405,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>10000</v>
@@ -2597,7 +2414,7 @@
         <v>10000</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2605,7 +2422,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>10000</v>
@@ -2614,7 +2431,7 @@
         <v>10000</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2622,7 +2439,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>8000</v>
@@ -2631,7 +2448,7 @@
         <v>8000</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2639,7 +2456,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>8000</v>
@@ -2648,7 +2465,7 @@
         <v>8000</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2656,7 +2473,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>15990</v>
@@ -2665,7 +2482,7 @@
         <v>18990</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2673,7 +2490,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>9999</v>
@@ -2682,7 +2499,7 @@
         <v>9999</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2690,7 +2507,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>11985</v>
@@ -2699,7 +2516,7 @@
         <v>11345</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2707,7 +2524,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>8999</v>
@@ -2716,7 +2533,7 @@
         <v>9999</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2751,25 +2568,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2777,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <f>7661.98*3</f>
@@ -2799,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>10000</v>
@@ -2819,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>2328</v>
@@ -2839,7 +2656,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -2859,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2269</v>
@@ -2879,7 +2696,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <f>3069.49*6</f>
@@ -2901,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>11699</v>
@@ -2922,7 +2739,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5">
         <v>8639</v>
@@ -2942,7 +2759,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>7299</v>
@@ -2963,7 +2780,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>14400</v>
@@ -2984,7 +2801,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>7200</v>
@@ -3005,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5">
         <v>8000</v>
@@ -3026,7 +2843,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" s="5">
         <v>13490</v>
@@ -3047,7 +2864,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11">
         <v>0</v>
@@ -3062,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3070,7 +2887,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>18498</v>
@@ -3091,7 +2908,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>13490</v>
@@ -3112,7 +2929,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>21998</v>
@@ -3133,7 +2950,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C19" s="5">
         <v>22000</v>
@@ -3142,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3150,7 +2967,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>9999</v>
@@ -3166,7 +2983,7 @@
         <v>1666.5</v>
       </c>
       <c r="Q20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="R20">
         <v>13000</v>
@@ -3177,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>23998</v>
@@ -3193,7 +3010,7 @@
         <v>3999.6666666666665</v>
       </c>
       <c r="Q21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="R21">
         <v>15990</v>
@@ -3204,7 +3021,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>31785</v>
@@ -3220,7 +3037,7 @@
         <v>5297.5</v>
       </c>
       <c r="Q22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R22">
         <v>13990</v>
@@ -3231,7 +3048,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>21998</v>
@@ -3247,7 +3064,7 @@
         <v>3666.3333333333335</v>
       </c>
       <c r="Q23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="R23">
         <v>12000</v>
@@ -3258,7 +3075,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5">
         <v>25489</v>
@@ -3274,7 +3091,7 @@
         <v>4248.166666666667</v>
       </c>
       <c r="Q24" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="R24">
         <v>11985</v>
@@ -3285,7 +3102,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>9979</v>
@@ -3300,7 +3117,7 @@
         <v>9979</v>
       </c>
       <c r="Q25" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="R25">
         <v>9000</v>
@@ -3311,7 +3128,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
         <v>9000</v>
@@ -3320,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -3376,22 +3193,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3402,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>10999</v>
@@ -3419,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>12999</v>
@@ -3436,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>10999</v>
@@ -3453,7 +3270,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>12999</v>
@@ -3470,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>8999</v>
@@ -3487,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>10999</v>
@@ -3504,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>12999</v>
@@ -3521,7 +3338,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>8999</v>
@@ -3538,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>7999</v>
@@ -3555,7 +3372,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>7999</v>
@@ -3572,7 +3389,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>7999</v>
@@ -3589,7 +3406,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>7999</v>
@@ -3606,7 +3423,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>7999</v>
@@ -3623,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>15990</v>
@@ -3640,7 +3457,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>13990</v>
@@ -3657,7 +3474,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>9800</v>
@@ -3674,7 +3491,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>9800</v>
@@ -3691,7 +3508,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <v>15990</v>
@@ -3708,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>10999</v>
@@ -3725,7 +3542,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>10999</v>
@@ -3742,7 +3559,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>10999</v>
@@ -3759,7 +3576,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>10999</v>
@@ -3776,7 +3593,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>9999</v>
@@ -3793,7 +3610,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>10999</v>
@@ -3810,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>12999</v>
@@ -3827,7 +3644,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>9999</v>
@@ -3844,7 +3661,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D28" s="7">
         <v>11985</v>
@@ -3861,7 +3678,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>9999</v>
@@ -3878,7 +3695,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>10999</v>
@@ -3895,7 +3712,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>10999</v>
@@ -3912,7 +3729,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>12999</v>
@@ -3929,7 +3746,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>13990</v>
@@ -3946,7 +3763,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>10999</v>
@@ -3963,7 +3780,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>9999</v>
@@ -4007,22 +3824,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4030,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>14400</v>
@@ -4048,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>61986</v>
@@ -4065,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>60195</v>
@@ -4082,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <f>7661.98*3</f>
@@ -4101,7 +3918,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5">
         <v>25489</v>
@@ -4119,7 +3936,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5">
         <v>67273</v>
@@ -4136,7 +3953,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <f>3069.49*6</f>
@@ -4161,7 +3978,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>18639</v>
@@ -4178,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>9979</v>
@@ -4195,7 +4012,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>4597</v>
@@ -4212,7 +4029,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>10000</v>
@@ -4237,34 +4054,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>2441.5500000000002</v>
@@ -4287,13 +4104,17 @@
       <c r="I2" s="19">
         <v>43194</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2">
+        <f>C2*6</f>
+        <v>14649.300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>3193.56</v>
@@ -4317,13 +4138,17 @@
       <c r="J3" s="19">
         <v>43224</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3">
+        <f>C3*6</f>
+        <v>19161.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>9499</v>
@@ -4348,12 +4173,12 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>7709.15</v>
@@ -4368,12 +4193,12 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>1333.12</v>
@@ -4397,12 +4222,12 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>2248.17</v>
@@ -4426,12 +4251,12 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>3082.83</v>
@@ -4455,12 +4280,12 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>3666.33</v>
@@ -4484,12 +4309,12 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>2098.4899999999998</v>
@@ -4513,12 +4338,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>2248.17</v>
@@ -4542,12 +4367,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>3666.33</v>
@@ -4571,12 +4396,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>5297.63</v>
@@ -4600,12 +4425,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <v>3106.63</v>
@@ -4629,12 +4454,12 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>4357.45</v>
@@ -4658,12 +4483,12 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>3504.32</v>
@@ -4689,10 +4514,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C17">
         <v>1949.67</v>
@@ -4718,10 +4543,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>1199.71</v>
@@ -4747,10 +4572,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C19">
         <v>1216.49</v>
@@ -4776,10 +4601,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>5666.16</v>
@@ -4805,10 +4630,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>1766.48</v>
@@ -4834,10 +4659,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>1649.85</v>

--- a/business/online_details.xlsx
+++ b/business/online_details.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="20730" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="390" windowWidth="20730" windowHeight="7890" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="item_order_update" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,17 @@
     <sheet name="all_items_details" sheetId="5" r:id="rId4"/>
     <sheet name="card_details_users" sheetId="6" r:id="rId5"/>
     <sheet name="emi_details_till_19_nov" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'card details'!$A$1:$R$27</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="130">
   <si>
     <t>user</t>
   </si>
@@ -343,13 +344,82 @@
   </si>
   <si>
     <t>cashback</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>manyavar</t>
+  </si>
+  <si>
+    <t>allen</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>trolly</t>
+  </si>
+  <si>
+    <t>manyavr</t>
+  </si>
+  <si>
+    <t>levi's</t>
+  </si>
+  <si>
+    <t>lee</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>rupam</t>
+  </si>
+  <si>
+    <t>sangam for jwelars</t>
+  </si>
+  <si>
+    <t>agrawal</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>ticket rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agrawal shopping </t>
+  </si>
+  <si>
+    <t>scooty</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>ticket cost</t>
+  </si>
+  <si>
+    <t>sameer bhai -bike acces</t>
+  </si>
+  <si>
+    <t>home to ghoghardis expanses</t>
+  </si>
+  <si>
+    <t>card user</t>
+  </si>
+  <si>
+    <t>RETURN VALUE ZERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETURN VALUE </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +468,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -506,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -537,6 +615,7 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -627,6 +706,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -661,6 +741,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -836,14 +917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A36" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -859,7 +940,7 @@
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -900,7 +981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -930,7 +1011,7 @@
         <v>7661.666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,7 +1019,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -964,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -987,7 +1068,7 @@
         <v>7004104922</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1014,7 +1095,7 @@
         <v>3069.3333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1022,13 +1103,13 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1">
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1054,7 +1135,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1078,7 +1159,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -1104,7 +1185,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1130,7 +1211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="D13" s="1" t="s">
         <v>64</v>
@@ -1145,7 +1226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -1175,7 +1256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -1202,7 +1283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -1226,7 +1307,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -1253,7 +1334,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -1274,7 +1355,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -1295,7 +1376,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -1322,7 +1403,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
         <v>67</v>
@@ -1336,7 +1417,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -1359,7 +1440,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -1376,7 +1457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
         <v>50</v>
@@ -1385,7 +1466,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>18</v>
       </c>
@@ -1408,7 +1489,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
         <v>50</v>
@@ -1417,7 +1498,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -1441,7 +1522,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>20</v>
       </c>
@@ -1460,7 +1541,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
@@ -1471,7 +1552,7 @@
       <c r="G29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>21</v>
       </c>
@@ -1495,7 +1576,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
         <v>26</v>
@@ -1506,7 +1587,7 @@
       <c r="G31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="1" t="s">
         <v>27</v>
@@ -1517,7 +1598,7 @@
       <c r="G32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>22</v>
       </c>
@@ -1541,7 +1622,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="9" t="s">
         <v>14</v>
@@ -1552,7 +1633,7 @@
       <c r="G34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>23</v>
       </c>
@@ -1578,7 +1659,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
         <v>66</v>
       </c>
@@ -1589,7 +1670,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>24</v>
       </c>
@@ -1613,7 +1694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>25</v>
       </c>
@@ -1639,7 +1720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>26</v>
       </c>
@@ -1659,14 +1740,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>27</v>
       </c>
@@ -1686,35 +1767,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
       <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="D44" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="D45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>28</v>
       </c>
@@ -1734,7 +1815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
       <c r="D47" s="1" t="s">
         <v>88</v>
@@ -1743,7 +1824,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>29</v>
       </c>
@@ -1760,7 +1841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -1769,7 +1850,7 @@
         <v>9499</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>30</v>
       </c>
@@ -1786,7 +1867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>31</v>
       </c>
@@ -1803,7 +1884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>32</v>
       </c>
@@ -1820,7 +1901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>33</v>
       </c>
@@ -1835,7 +1916,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="D54" s="1" t="s">
         <v>91</v>
@@ -1845,7 +1926,7 @@
       </c>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>34</v>
       </c>
@@ -1874,7 +1955,7 @@
         <v>7903328917</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
         <v>13</v>
@@ -1883,7 +1964,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
         <v>13</v>
@@ -1892,7 +1973,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>35</v>
       </c>
@@ -1921,7 +2002,7 @@
         <v>8002559782</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
         <v>13</v>
@@ -1930,7 +2011,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>36</v>
       </c>
@@ -1965,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1980,7 +2061,7 @@
       <c r="H61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>37</v>
       </c>
@@ -2009,7 +2090,7 @@
         <v>9122200271</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
         <v>22</v>
@@ -2055,14 +2136,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -2073,7 +2154,7 @@
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2093,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2110,7 +2191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2130,7 +2211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2147,7 +2228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2167,7 +2248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2184,7 +2265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2201,7 +2282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2218,7 +2299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2235,7 +2316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2252,7 +2333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2272,7 +2353,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2292,7 +2373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2312,7 +2393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2329,7 +2410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2346,7 +2427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2363,7 +2444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2383,7 +2464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2400,7 +2481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2417,7 +2498,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2434,7 +2515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2451,7 +2532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2468,7 +2549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2485,7 +2566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2502,7 +2583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2519,7 +2600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2542,14 +2623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -2566,7 +2647,7 @@
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
@@ -2589,7 +2670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2611,7 +2692,7 @@
         <v>7661.98</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2631,7 +2712,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2651,7 +2732,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2671,7 +2752,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2691,7 +2772,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2713,7 +2794,7 @@
         <v>3069.49</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2734,7 +2815,7 @@
         <v>1949.8333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2754,7 +2835,7 @@
         <v>8639</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2775,7 +2856,7 @@
         <v>1216.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2796,7 +2877,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2817,7 +2898,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2838,7 +2919,7 @@
         <v>1333.3333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2859,7 +2940,7 @@
         <v>2248.3333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2882,7 +2963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2903,7 +2984,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2924,7 +3005,7 @@
         <v>2248.3333333333335</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2945,7 +3026,7 @@
         <v>3666.3333333333335</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2962,7 +3043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2989,7 +3070,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3016,7 +3097,7 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3043,7 +3124,7 @@
         <v>13990</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3070,7 +3151,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3097,7 +3178,7 @@
         <v>11985</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3123,7 +3204,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3147,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>SUM(C2:C26)</f>
         <v>344960.88</v>
@@ -3173,14 +3254,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -3191,7 +3272,7 @@
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>73</v>
       </c>
@@ -3211,7 +3292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3228,7 +3309,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3245,7 +3326,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3262,7 +3343,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3279,7 +3360,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3296,7 +3377,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3313,7 +3394,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3330,7 +3411,7 @@
         <v>14999</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3347,7 +3428,7 @@
         <v>8999</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3364,7 +3445,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3381,7 +3462,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3398,7 +3479,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3415,7 +3496,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3432,7 +3513,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3449,7 +3530,7 @@
         <v>18990</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3466,7 +3547,7 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3483,7 +3564,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3500,7 +3581,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3517,7 +3598,7 @@
         <v>18990</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3534,7 +3615,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3551,7 +3632,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3568,7 +3649,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3585,7 +3666,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3602,7 +3683,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3619,7 +3700,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3636,7 +3717,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3653,7 +3734,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3670,7 +3751,7 @@
         <v>11347</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3687,7 +3768,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3704,7 +3785,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3721,7 +3802,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3738,7 +3819,7 @@
         <v>14999</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3755,7 +3836,7 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3772,7 +3853,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3789,7 +3870,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" s="4">
         <f>SUM(D2:D35)</f>
         <v>375518</v>
@@ -3809,20 +3890,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -3842,7 +3923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3860,7 +3941,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3877,7 +3958,7 @@
         <v>10331</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3894,7 +3975,7 @@
         <v>10032</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3913,7 +3994,7 @@
         <v>7661.98</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3931,7 +4012,7 @@
         <v>4248.166666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3948,7 +4029,7 @@
         <v>11212</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3967,13 +4048,13 @@
         <v>3069.49</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="4">
         <f>SUM(E2:E8)</f>
         <v>48954.636666666665</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3990,7 +4071,7 @@
         <v>18639</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4007,7 +4088,7 @@
         <v>9979</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4024,7 +4105,7 @@
         <v>4597</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4041,7 +4122,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E15" s="4">
         <f>SUM(E11:E14)</f>
         <v>43215</v>
@@ -4053,16 +4134,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>93</v>
       </c>
@@ -4076,7 +4157,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -4089,7 +4170,7 @@
       <c r="D2" s="21">
         <v>43408</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="21">
         <v>43438</v>
       </c>
       <c r="F2" s="19">
@@ -4109,7 +4190,7 @@
         <v>14649.300000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -4120,7 +4201,7 @@
         <v>3193.56</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="19">
+      <c r="E3" s="21">
         <v>43438</v>
       </c>
       <c r="F3" s="19">
@@ -4139,11 +4220,11 @@
         <v>43224</v>
       </c>
       <c r="L3">
-        <f>C3*6</f>
+        <f t="shared" ref="L3:L28" si="0">C3*6</f>
         <v>19161.36</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4154,7 +4235,7 @@
         <v>9499</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="19">
+      <c r="E4" s="21">
         <v>43438</v>
       </c>
       <c r="F4" s="19">
@@ -4172,8 +4253,12 @@
       <c r="J4" s="19">
         <v>43224</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>56994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4186,14 +4271,18 @@
       <c r="D5" s="21">
         <v>43408</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="22">
         <v>43438</v>
       </c>
       <c r="F5" s="19">
         <v>43104</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <f>C5*3</f>
+        <v>23127.449999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4203,7 +4292,7 @@
       <c r="C6">
         <v>1333.12</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="21">
         <v>43426</v>
       </c>
       <c r="E6" s="19">
@@ -4221,8 +4310,12 @@
       <c r="I6" s="19">
         <v>43577</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>7998.7199999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4232,7 +4325,7 @@
       <c r="C7">
         <v>2248.17</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="21">
         <v>43426</v>
       </c>
       <c r="E7" s="19">
@@ -4250,8 +4343,19 @@
       <c r="I7" s="19">
         <v>43577</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>13489.02</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <f>13163+9959</f>
+        <v>23122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4261,7 +4365,7 @@
       <c r="C8">
         <v>3082.83</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="21">
         <v>43426</v>
       </c>
       <c r="E8" s="19">
@@ -4279,8 +4383,19 @@
       <c r="I8" s="19">
         <v>43577</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>18496.98</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8">
+        <f>16989+8543+660</f>
+        <v>26192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4290,7 +4405,7 @@
       <c r="C9">
         <v>3666.33</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="21">
         <v>43426</v>
       </c>
       <c r="E9" s="19">
@@ -4308,8 +4423,18 @@
       <c r="I9" s="19">
         <v>43577</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>21997.98</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9">
+        <v>16417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4319,7 +4444,8 @@
       <c r="C10">
         <v>2098.4899999999998</v>
       </c>
-      <c r="E10" s="19">
+      <c r="D10" s="1"/>
+      <c r="E10" s="21">
         <v>43435</v>
       </c>
       <c r="F10" s="19">
@@ -4337,8 +4463,19 @@
       <c r="J10" s="19">
         <v>43586</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>12590.939999999999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <f>7709*2+2916*2</f>
+        <v>21250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4348,7 +4485,8 @@
       <c r="C11">
         <v>2248.17</v>
       </c>
-      <c r="E11" s="19">
+      <c r="D11" s="1"/>
+      <c r="E11" s="21">
         <v>43435</v>
       </c>
       <c r="F11" s="19">
@@ -4366,8 +4504,18 @@
       <c r="J11" s="19">
         <v>43586</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>13489.02</v>
+      </c>
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4377,7 +4525,8 @@
       <c r="C12">
         <v>3666.33</v>
       </c>
-      <c r="E12" s="19">
+      <c r="D12" s="1"/>
+      <c r="E12" s="21">
         <v>43435</v>
       </c>
       <c r="F12" s="19">
@@ -4395,8 +4544,18 @@
       <c r="J12" s="19">
         <v>43586</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>21997.98</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12">
+        <v>223500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4406,7 +4565,8 @@
       <c r="C13">
         <v>5297.63</v>
       </c>
-      <c r="E13" s="19">
+      <c r="D13" s="1"/>
+      <c r="E13" s="21">
         <v>43435</v>
       </c>
       <c r="F13" s="19">
@@ -4424,8 +4584,18 @@
       <c r="J13" s="19">
         <v>43586</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>31785.78</v>
+      </c>
+      <c r="P13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4435,10 +4605,10 @@
       <c r="C14">
         <v>3106.63</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>43408</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="21">
         <v>43438</v>
       </c>
       <c r="F14" s="19">
@@ -4453,8 +4623,18 @@
       <c r="I14" s="19">
         <v>43194</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>18639.78</v>
+      </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14">
+        <v>32385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4464,13 +4644,13 @@
       <c r="C15">
         <v>4357.45</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>43408</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="21">
         <v>43438</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="21">
         <v>43104</v>
       </c>
       <c r="G15" s="19">
@@ -4482,8 +4662,15 @@
       <c r="I15" s="19">
         <v>43194</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>26144.699999999997</v>
+      </c>
+      <c r="Q15">
+        <v>21843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4493,10 +4680,11 @@
       <c r="C16">
         <v>3504.32</v>
       </c>
-      <c r="E16" s="19">
+      <c r="D16" s="1"/>
+      <c r="E16" s="21">
         <v>43438</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="21">
         <v>43104</v>
       </c>
       <c r="G16" s="19">
@@ -4511,8 +4699,15 @@
       <c r="J16" s="19">
         <v>43224</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>21025.920000000002</v>
+      </c>
+      <c r="Q16">
+        <v>19394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4525,7 +4720,7 @@
       <c r="D17" s="21">
         <v>43408</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="21">
         <v>43438</v>
       </c>
       <c r="F17" s="19">
@@ -4540,8 +4735,16 @@
       <c r="I17" s="19">
         <v>43194</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>11698.02</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>SUM(Q7:Q16)</f>
+        <v>731603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4554,7 +4757,7 @@
       <c r="D18" s="21">
         <v>43408</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="21">
         <v>43438</v>
       </c>
       <c r="F18" s="19">
@@ -4569,8 +4772,12 @@
       <c r="I18" s="19">
         <v>43194</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>7198.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4583,7 +4790,7 @@
       <c r="D19" s="21">
         <v>43408</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="21">
         <v>43438</v>
       </c>
       <c r="F19" s="19">
@@ -4598,8 +4805,12 @@
       <c r="I19" s="19">
         <v>43194</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>7298.9400000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4609,7 +4820,7 @@
       <c r="C20">
         <v>5666.16</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="21">
         <v>43438</v>
       </c>
       <c r="F20" s="19">
@@ -4627,8 +4838,12 @@
       <c r="J20" s="19">
         <v>43224</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>33996.959999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4638,7 +4853,7 @@
       <c r="C21">
         <v>1766.48</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="21">
         <v>43438</v>
       </c>
       <c r="F21" s="19">
@@ -4656,8 +4871,12 @@
       <c r="J21" s="19">
         <v>43224</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>10598.880000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4667,7 +4886,7 @@
       <c r="C22">
         <v>1649.85</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="21">
         <v>43438</v>
       </c>
       <c r="F22" s="19">
@@ -4684,9 +4903,473 @@
       </c>
       <c r="J22" s="19">
         <v>43224</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>9899.0999999999985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <f>19000/6</f>
+        <v>3166.6666666666665</v>
+      </c>
+      <c r="F24" s="19">
+        <v>43104</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <f>17000/6</f>
+        <v>2833.3333333333335</v>
+      </c>
+      <c r="F25" s="19">
+        <v>43104</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <f>17000/6</f>
+        <v>2833.3333333333335</v>
+      </c>
+      <c r="E26" s="19">
+        <v>43456</v>
+      </c>
+      <c r="F26" s="19">
+        <v>43122</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27">
+        <f>28498/6</f>
+        <v>4749.666666666667</v>
+      </c>
+      <c r="F27" s="19">
+        <v>43104</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>28498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <f>17500/6</f>
+        <v>2916.6666666666665</v>
+      </c>
+      <c r="E28" s="22">
+        <v>43438</v>
+      </c>
+      <c r="F28" s="19">
+        <v>43104</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="7">
+        <f>SUM(L2:L28)</f>
+        <v>501277.09000000008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>15993</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>11993</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>7395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3960</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>2890</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>5262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <v>29999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>7295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10">
+        <v>13794</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11">
+        <v>1412</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12">
+        <v>53800</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13">
+        <v>60000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14">
+        <v>30000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>30000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16">
+        <v>22000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <v>1699</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18">
+        <v>4000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>12137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20">
+        <v>6686</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <v>70900</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22">
+        <v>30000</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23">
+        <v>18000</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24">
+        <v>4000</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <f ca="1">SUM(B2:B26)</f>
+        <v>448215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/business/online_details.xlsx
+++ b/business/online_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="390" windowWidth="20730" windowHeight="7890" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="450" windowWidth="20730" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="item_order_update" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'card details'!$A$1:$R$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">item_order_update!$A$1:$M$64</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="193">
   <si>
     <t>user</t>
   </si>
@@ -94,9 +95,6 @@
     <t>redmi6</t>
   </si>
   <si>
-    <t>6 month emi</t>
-  </si>
-  <si>
     <t>vivo v9</t>
   </si>
   <si>
@@ -274,9 +272,6 @@
     <t>amol hdfc</t>
   </si>
   <si>
-    <t>moto g6 4/64</t>
-  </si>
-  <si>
     <t>cancelled</t>
   </si>
   <si>
@@ -289,12 +284,6 @@
     <t>inamul</t>
   </si>
   <si>
-    <t>note 6 pro 3/32</t>
-  </si>
-  <si>
-    <t>note 6 pro 4/64</t>
-  </si>
-  <si>
     <t>redmi6 3/32</t>
   </si>
   <si>
@@ -331,9 +320,6 @@
     <t>diwali offer</t>
   </si>
   <si>
-    <t>redmi 3/32</t>
-  </si>
-  <si>
     <t>jha.pankaj67@gmail.com</t>
   </si>
   <si>
@@ -413,6 +399,210 @@
   </si>
   <si>
     <t xml:space="preserve">RETURN VALUE </t>
+  </si>
+  <si>
+    <t>86815104993_8089</t>
+  </si>
+  <si>
+    <t>86098004375_2817</t>
+  </si>
+  <si>
+    <t>86098004723_2212</t>
+  </si>
+  <si>
+    <t>86098004010_1513</t>
+  </si>
+  <si>
+    <t>86098004527_1246</t>
+  </si>
+  <si>
+    <t>against order</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>flipkart</t>
+  </si>
+  <si>
+    <t>86408904465_8738</t>
+  </si>
+  <si>
+    <t>86813403904_5354</t>
+  </si>
+  <si>
+    <t>86813403308_5596</t>
+  </si>
+  <si>
+    <t>86408904573_7218</t>
+  </si>
+  <si>
+    <t>86815104664_0399</t>
+  </si>
+  <si>
+    <t>86724704707_7135</t>
+  </si>
+  <si>
+    <t>86430304510_5973</t>
+  </si>
+  <si>
+    <t>86408904637_7410</t>
+  </si>
+  <si>
+    <t>86430304979_1422</t>
+  </si>
+  <si>
+    <t>86430304314_3133</t>
+  </si>
+  <si>
+    <t>86813403957_6549</t>
+  </si>
+  <si>
+    <t>86815104705_8617</t>
+  </si>
+  <si>
+    <t>86886503533_7655</t>
+  </si>
+  <si>
+    <t>86818803137_6845</t>
+  </si>
+  <si>
+    <t>86815104402_8357</t>
+  </si>
+  <si>
+    <t>86804303910_6258</t>
+  </si>
+  <si>
+    <t>86813403295_0915</t>
+  </si>
+  <si>
+    <t>86430304057_0296</t>
+  </si>
+  <si>
+    <t>35552809039_5436</t>
+  </si>
+  <si>
+    <t>86815104937_2396</t>
+  </si>
+  <si>
+    <t>86430304078_6611</t>
+  </si>
+  <si>
+    <t>35186609175_2484</t>
+  </si>
+  <si>
+    <t>86408904400_2952</t>
+  </si>
+  <si>
+    <t>86804303867_4306</t>
+  </si>
+  <si>
+    <t>86408904331_9472</t>
+  </si>
+  <si>
+    <t>86813403746_2817</t>
+  </si>
+  <si>
+    <t>86430304902_8791</t>
+  </si>
+  <si>
+    <t>86813403247_1920</t>
+  </si>
+  <si>
+    <t>86408904515_4406</t>
+  </si>
+  <si>
+    <t>86408904640_7845</t>
+  </si>
+  <si>
+    <t>redmi 6 pro 4/64 gold</t>
+  </si>
+  <si>
+    <t>redmi 6 pro 3/32 gold</t>
+  </si>
+  <si>
+    <t>y2 4/64 gold</t>
+  </si>
+  <si>
+    <t>y2 3/32 black</t>
+  </si>
+  <si>
+    <t>86430304406_1219</t>
+  </si>
+  <si>
+    <t>redmi 6 pro 3/32 black</t>
+  </si>
+  <si>
+    <t>y2 3/32 blue</t>
+  </si>
+  <si>
+    <t>redmi 6 pro 4/64 black</t>
+  </si>
+  <si>
+    <t>y2 3/32 gold</t>
+  </si>
+  <si>
+    <t>honor 9 lite 3/32 blue</t>
+  </si>
+  <si>
+    <t>honor 7c 3/32 blue</t>
+  </si>
+  <si>
+    <t>y2 4/64 dark grey</t>
+  </si>
+  <si>
+    <t>moto g6 4/64 black</t>
+  </si>
+  <si>
+    <t>86408904093_8316</t>
+  </si>
+  <si>
+    <t>honor 7s 2/16</t>
+  </si>
+  <si>
+    <t>CANCELED</t>
+  </si>
+  <si>
+    <t>86670004662_9521</t>
+  </si>
+  <si>
+    <t>note 5 pro 4/64 gold</t>
+  </si>
+  <si>
+    <t>86494004955_7442</t>
+  </si>
+  <si>
+    <t>redmi 5 3/32 black</t>
+  </si>
+  <si>
+    <t>86815003663_6292</t>
+  </si>
+  <si>
+    <t>redmi 6 3/32 black</t>
+  </si>
+  <si>
+    <t>86218104751_7532</t>
+  </si>
+  <si>
+    <t>redmi 6 3/32 blue</t>
+  </si>
+  <si>
+    <t>realme 2 pro 4/64</t>
+  </si>
+  <si>
+    <t>35552809395_0112</t>
+  </si>
+  <si>
+    <t>moto e5 plus 3/32 black</t>
+  </si>
+  <si>
+    <t>35552809624_3259</t>
+  </si>
+  <si>
+    <t>moto e5 plus 3/32 gold</t>
   </si>
 </sst>
 </file>
@@ -478,7 +668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,12 +708,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +768,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -597,8 +779,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,13 +789,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -918,1186 +1100,1525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:E54"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="K1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2">
+        <v>10999</v>
+      </c>
+      <c r="H2" s="7">
+        <v>22459.86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>8553752095</v>
+      </c>
+      <c r="M2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4">
+        <v>10999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>8553752095</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5">
+        <v>12999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>7004104922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6">
+        <v>9999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>18416</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8">
+        <v>14999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>11267</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>8553752095</v>
+      </c>
+      <c r="M8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9">
+        <v>9999</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>8553752095</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10">
+        <v>7999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7230</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>8553752095</v>
+      </c>
+      <c r="M10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11">
+        <v>7999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12">
+        <v>7999</v>
+      </c>
+      <c r="M12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13">
+        <v>7999</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6933</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>8553752095</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14">
+        <v>7999</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>7004104922</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15">
+        <v>18990</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>7004104922</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16">
+        <v>13990</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12127</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="8">
+        <v>9341223138</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="5">
+        <v>7004104922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5">
+        <v>7004104922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19">
+        <v>9800</v>
+      </c>
+      <c r="H19" s="7">
+        <v>17816</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>7004104922</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20">
+        <v>9800</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21">
+        <v>18990</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22">
+        <v>12999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="C24" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24">
+        <v>12999</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26">
+        <v>9999</v>
+      </c>
+      <c r="H26" s="7">
+        <v>32744</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>8553752095</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27">
+        <v>12999</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="K27">
+        <v>8553752095</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28">
+        <v>12999</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>21</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29">
+        <v>9999</v>
+      </c>
+      <c r="H29">
+        <v>30614</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="6">
+        <v>8002559782</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="5">
+        <v>11347</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31">
+        <v>9999</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D32" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32">
+        <v>12999</v>
+      </c>
+      <c r="H32">
+        <v>21187</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>9122200271</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33">
+        <v>12999</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>23</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34">
+        <v>14999</v>
+      </c>
+      <c r="H34">
+        <v>24549</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+      <c r="D35" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35">
+        <v>13990</v>
+      </c>
+      <c r="M35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>24</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36">
         <v>10999</v>
       </c>
-      <c r="F2" s="9">
-        <v>22459.86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>8553752095</v>
-      </c>
-      <c r="L2">
-        <v>2000</v>
-      </c>
-      <c r="M2">
-        <f>22985/3</f>
-        <v>7661.666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>12999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>10999</v>
-      </c>
-      <c r="F4" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>8553752095</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>12999</v>
-      </c>
-      <c r="F5" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>7004104922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>9999</v>
-      </c>
-      <c r="F6" s="9">
-        <v>18416</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6">
-        <v>2000</v>
-      </c>
-      <c r="M6">
-        <f>18416/6</f>
-        <v>3069.3333333333335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>12999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="D8" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9">
-        <v>14999</v>
-      </c>
-      <c r="F9" s="9">
-        <v>11267</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9">
-        <v>8553752095</v>
-      </c>
-      <c r="L9">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10">
-        <v>9999</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>8553752095</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11">
-        <v>7999</v>
-      </c>
-      <c r="F11" s="9">
-        <v>7230</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11">
-        <v>8553752095</v>
-      </c>
-      <c r="L11">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12">
-        <v>7999</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12">
-        <v>800</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13">
-        <v>7999</v>
-      </c>
-      <c r="L13">
-        <v>800</v>
-      </c>
-      <c r="M13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14">
-        <v>7999</v>
-      </c>
-      <c r="F14" s="9">
-        <v>6933</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14">
-        <v>8553752095</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14">
-        <v>800</v>
-      </c>
-      <c r="M14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15">
-        <v>7999</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>7004104922</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16">
-        <v>18990</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>7004104922</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17">
-        <v>13990</v>
-      </c>
-      <c r="F17" s="9">
-        <v>12127</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="10">
-        <v>9341223138</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>13</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="12">
-        <v>7004104922</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>14</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="12">
-        <v>7004104922</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20">
-        <v>9800</v>
-      </c>
-      <c r="F20" s="9">
-        <v>17816</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20">
-        <v>7004104922</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21">
-        <v>9800</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>16</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22">
-        <v>18990</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23">
-        <v>12999</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24">
-        <v>10999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25">
-        <v>12999</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26">
-        <v>10999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>9999</v>
-      </c>
-      <c r="F27" s="9">
-        <v>32744</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27">
-        <v>8553752095</v>
-      </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28">
-        <v>12999</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="J28">
-        <v>8553752095</v>
-      </c>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29">
-        <v>12999</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>21</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30">
-        <v>9999</v>
-      </c>
-      <c r="F30">
-        <v>30614</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="8">
-        <v>8002559782</v>
-      </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="7">
-        <v>11347</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="D32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32">
-        <v>9999</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>22</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33">
-        <v>12999</v>
-      </c>
-      <c r="F33">
-        <v>21187</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33">
-        <v>9122200271</v>
-      </c>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="D34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34">
-        <v>12999</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>23</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35">
-        <v>14999</v>
-      </c>
-      <c r="F35">
-        <v>24549</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36">
-        <v>13990</v>
-      </c>
-      <c r="L36">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>24</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37">
-        <v>10999</v>
-      </c>
-      <c r="F37">
+      <c r="H36">
         <f>10999-1020</f>
         <v>9979</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37">
+        <v>9999</v>
+      </c>
+      <c r="H37" s="7">
+        <v>8999</v>
+      </c>
+      <c r="I37" t="s">
         <v>29</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37">
+        <v>853752095</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>26</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="5">
+        <v>22800</v>
+      </c>
+      <c r="K38" s="5">
+        <v>8002559782</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>27</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="1">
+        <v>57376</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="3"/>
+      <c r="D42" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+      <c r="D43" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+      <c r="D44" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10999</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="3"/>
+      <c r="D46" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="1">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>29</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="1">
+        <v>10999</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+      <c r="D48" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" s="1">
+        <v>9499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>30</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10999</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>31</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10999</v>
+      </c>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>25</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="C51" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38">
-        <v>9999</v>
-      </c>
-      <c r="F38" s="9">
-        <v>8999</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38">
-        <v>853752095</v>
-      </c>
-      <c r="L38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>26</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>22800</v>
-      </c>
-      <c r="J39" s="7">
+      <c r="D51" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="1">
+        <v>12999</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>33</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="3"/>
+      <c r="D53" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="1">
+        <v>9500</v>
+      </c>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>34</v>
+      </c>
+      <c r="B54" s="22">
+        <v>43425</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54" s="3">
+        <v>7903328917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H55" s="3">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H56" s="3">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>35</v>
+      </c>
+      <c r="B57" s="22">
+        <v>43425</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57" s="3">
         <v>8002559782</v>
       </c>
-      <c r="L39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>27</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="1">
-        <v>57376</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C42" s="5"/>
-      <c r="D42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
-      <c r="D44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>28</v>
-      </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1">
-        <v>10999</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>36</v>
+      </c>
+      <c r="B59" s="17">
+        <v>43425</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="5">
+        <v>8499</v>
+      </c>
+      <c r="H59" s="5">
+        <v>16998</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" s="5">
+        <v>8002559782</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="5">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>37</v>
+      </c>
+      <c r="B61" s="15">
+        <v>43425</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="1">
-        <v>10999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>29</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="1">
-        <v>10999</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="1">
-        <v>9499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>30</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="1">
-        <v>10999</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="D61" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61">
+        <v>8499</v>
+      </c>
+      <c r="H61">
+        <v>16998</v>
+      </c>
+      <c r="I61" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>31</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="1">
-        <v>10999</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>32</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" s="1">
-        <v>12999</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>33</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="1">
-        <v>8000</v>
-      </c>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="5"/>
-      <c r="D54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="1">
-        <v>9500</v>
-      </c>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>34</v>
-      </c>
-      <c r="B55" s="19">
-        <v>43425</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55">
-        <v>9999</v>
-      </c>
-      <c r="F55">
-        <v>28498</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55">
-        <v>7903328917</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>35</v>
-      </c>
-      <c r="B58" s="19">
-        <v>43425</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58">
-        <v>9999</v>
-      </c>
-      <c r="F58">
-        <v>19000</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58">
-        <v>8002559782</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="5"/>
-      <c r="D59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>36</v>
-      </c>
-      <c r="B60" s="22">
-        <v>43425</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+      <c r="K61">
+        <v>9122200271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="7">
+      <c r="F62" s="3"/>
+      <c r="G62">
         <v>8499</v>
       </c>
-      <c r="F60" s="7">
-        <v>16998</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J60" s="7">
-        <v>8002559782</v>
-      </c>
-      <c r="K60" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="7">
-        <v>8499</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>37</v>
-      </c>
-      <c r="B62" s="19">
-        <v>43425</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62">
-        <v>8499</v>
-      </c>
-      <c r="F62">
-        <v>16998</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s">
-        <v>100</v>
-      </c>
-      <c r="J62">
-        <v>9122200271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63">
-        <v>8499</v>
-      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>38</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+      <c r="D64" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="15"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="3"/>
+      <c r="D67" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2105,30 +2626,30 @@
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C14" r:id="rId8"/>
-    <hyperlink ref="C15" r:id="rId9"/>
-    <hyperlink ref="C16" r:id="rId10"/>
-    <hyperlink ref="C17" r:id="rId11"/>
-    <hyperlink ref="C18" r:id="rId12"/>
-    <hyperlink ref="C19" r:id="rId13"/>
-    <hyperlink ref="C20" r:id="rId14"/>
-    <hyperlink ref="C27" r:id="rId15"/>
-    <hyperlink ref="C28" r:id="rId16"/>
-    <hyperlink ref="C30" r:id="rId17"/>
-    <hyperlink ref="C55" r:id="rId18"/>
-    <hyperlink ref="C58" r:id="rId19"/>
-    <hyperlink ref="C60" r:id="rId20"/>
-    <hyperlink ref="C46" r:id="rId21"/>
-    <hyperlink ref="C48" r:id="rId22"/>
-    <hyperlink ref="C50" r:id="rId23"/>
-    <hyperlink ref="C51" r:id="rId24"/>
-    <hyperlink ref="C52" r:id="rId25"/>
-    <hyperlink ref="C62" r:id="rId26"/>
-    <hyperlink ref="C25" r:id="rId27"/>
-    <hyperlink ref="C37" r:id="rId28"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId8"/>
+    <hyperlink ref="C14" r:id="rId9"/>
+    <hyperlink ref="C15" r:id="rId10"/>
+    <hyperlink ref="C16" r:id="rId11"/>
+    <hyperlink ref="C17" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C26" r:id="rId15"/>
+    <hyperlink ref="C27" r:id="rId16"/>
+    <hyperlink ref="C29" r:id="rId17"/>
+    <hyperlink ref="C54" r:id="rId18"/>
+    <hyperlink ref="C57" r:id="rId19"/>
+    <hyperlink ref="C59" r:id="rId20"/>
+    <hyperlink ref="C45" r:id="rId21"/>
+    <hyperlink ref="C47" r:id="rId22"/>
+    <hyperlink ref="C49" r:id="rId23"/>
+    <hyperlink ref="C50" r:id="rId24"/>
+    <hyperlink ref="C51" r:id="rId25"/>
+    <hyperlink ref="C61" r:id="rId26"/>
+    <hyperlink ref="C24" r:id="rId27"/>
+    <hyperlink ref="C36" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
@@ -2156,19 +2677,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2179,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>12999</v>
@@ -2215,7 +2736,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4">
@@ -2233,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>12999</v>
@@ -2253,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>13990</v>
@@ -2270,7 +2791,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>8000</v>
@@ -2287,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>8000</v>
@@ -2304,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>12999</v>
@@ -2321,7 +2842,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>10999</v>
@@ -2337,7 +2858,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11">
@@ -2347,7 +2868,7 @@
         <v>9999</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -2398,7 +2919,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>10999</v>
@@ -2407,7 +2928,7 @@
         <v>10999</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,7 +2936,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>10999</v>
@@ -2424,7 +2945,7 @@
         <v>10999</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,7 +2953,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>12999</v>
@@ -2441,7 +2962,7 @@
         <v>12999</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,14 +2982,14 @@
         <v>10999</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18">
@@ -2478,7 +2999,7 @@
         <v>9999</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2486,7 +3007,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>10000</v>
@@ -2495,7 +3016,7 @@
         <v>10000</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2503,7 +3024,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10000</v>
@@ -2512,7 +3033,7 @@
         <v>10000</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2554,7 +3075,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>15990</v>
@@ -2563,14 +3084,14 @@
         <v>18990</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24">
@@ -2587,13 +3108,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>26</v>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C25">
         <v>11985</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>11345</v>
       </c>
       <c r="F25" t="s">
@@ -2604,8 +3125,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>27</v>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C26">
         <v>8999</v>
@@ -2648,26 +3169,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2777,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <f>3069.49*6</f>
@@ -2819,13 +3340,13 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3">
         <v>8639</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>8639</v>
       </c>
       <c r="E9">
@@ -2845,7 +3366,7 @@
       <c r="C10">
         <v>7299</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>7299</v>
       </c>
       <c r="E10">
@@ -2866,7 +3387,7 @@
       <c r="C11">
         <v>14400</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>14400</v>
       </c>
       <c r="E11">
@@ -2887,7 +3408,7 @@
       <c r="C12">
         <v>7200</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>7200</v>
       </c>
       <c r="E12">
@@ -2902,13 +3423,13 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>8000</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>8000</v>
       </c>
       <c r="E13">
@@ -2923,13 +3444,13 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>13490</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>13490</v>
       </c>
       <c r="E14">
@@ -2941,16 +3462,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>0</v>
       </c>
       <c r="E15">
@@ -2960,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2988,8 +3509,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>57</v>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C17">
         <v>13490</v>
@@ -3009,8 +3530,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>57</v>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C18">
         <v>21998</v>
@@ -3031,16 +3552,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="5">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3">
         <v>22000</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -3053,7 +3574,7 @@
       <c r="C20">
         <v>9999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>9999</v>
       </c>
       <c r="E20">
@@ -3064,7 +3585,7 @@
         <v>1666.5</v>
       </c>
       <c r="Q20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R20">
         <v>13000</v>
@@ -3080,7 +3601,7 @@
       <c r="C21">
         <v>23998</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>23998</v>
       </c>
       <c r="E21">
@@ -3091,7 +3612,7 @@
         <v>3999.6666666666665</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R21">
         <v>15990</v>
@@ -3102,12 +3623,12 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>31785</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>31785</v>
       </c>
       <c r="E22">
@@ -3118,7 +3639,7 @@
         <v>5297.5</v>
       </c>
       <c r="Q22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R22">
         <v>13990</v>
@@ -3134,7 +3655,7 @@
       <c r="C23">
         <v>21998</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>21998</v>
       </c>
       <c r="E23">
@@ -3145,7 +3666,7 @@
         <v>3666.3333333333335</v>
       </c>
       <c r="Q23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R23">
         <v>12000</v>
@@ -3156,12 +3677,12 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="5">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3">
         <v>25489</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>25489</v>
       </c>
       <c r="E24">
@@ -3172,7 +3693,7 @@
         <v>4248.166666666667</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R24">
         <v>11985</v>
@@ -3183,12 +3704,12 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>9979</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>9979</v>
       </c>
       <c r="E25">
@@ -3198,7 +3719,7 @@
         <v>9979</v>
       </c>
       <c r="Q25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R25">
         <v>9000</v>
@@ -3214,15 +3735,15 @@
       <c r="C26" s="1">
         <v>9000</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26">
         <f>J26</f>
         <v>0</v>
@@ -3233,16 +3754,16 @@
         <f>SUM(C2:C26)</f>
         <v>344960.88</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <f>SUM(D2:D26)</f>
         <v>314157</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="7">
+      <c r="E27" s="3"/>
+      <c r="F27" s="5">
         <f>SUM(F2:F26)</f>
         <v>48955.30333333333</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="9">
         <f>SUM(G3:G26)</f>
         <v>43215</v>
       </c>
@@ -3273,23 +3794,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3402,7 +3923,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>12999</v>
@@ -3419,7 +3940,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>8999</v>
@@ -3436,7 +3957,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>7999</v>
@@ -3453,7 +3974,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>7999</v>
@@ -3470,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>7999</v>
@@ -3487,7 +4008,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>7999</v>
@@ -3504,7 +4025,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>7999</v>
@@ -3520,8 +4041,8 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>65</v>
+      <c r="C15" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D15">
         <v>15990</v>
@@ -3537,8 +4058,8 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>66</v>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D16">
         <v>13990</v>
@@ -3555,7 +4076,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>9800</v>
@@ -3572,7 +4093,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>9800</v>
@@ -3588,8 +4109,8 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>65</v>
+      <c r="C19" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D19">
         <v>15990</v>
@@ -3623,7 +4144,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>10999</v>
@@ -3657,7 +4178,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>10999</v>
@@ -3708,7 +4229,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>12999</v>
@@ -3742,12 +4263,12 @@
         <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="7">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5">
         <v>11985</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>11347</v>
       </c>
     </row>
@@ -3759,7 +4280,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>9999</v>
@@ -3775,7 +4296,7 @@
       <c r="B30">
         <v>22</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D30">
@@ -3792,7 +4313,7 @@
       <c r="B31">
         <v>22</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D31">
@@ -3810,7 +4331,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>12999</v>
@@ -3827,7 +4348,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33">
         <v>13990</v>
@@ -3844,7 +4365,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>10999</v>
@@ -3871,15 +4392,15 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <f>SUM(D2:D35)</f>
         <v>375518</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <f>SUM(E2:E35)</f>
         <v>401880</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="7">
         <v>22500</v>
       </c>
     </row>
@@ -3904,23 +4425,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,8 +4466,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>79</v>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C3">
         <v>61986</v>
@@ -3999,9 +4520,9 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
         <v>25489</v>
       </c>
       <c r="D6">
@@ -4017,9 +4538,9 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3">
         <v>67273</v>
       </c>
       <c r="D7">
@@ -4034,7 +4555,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <f>3069.49*6</f>
@@ -4049,7 +4570,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
         <v>48954.636666666665</v>
       </c>
@@ -4058,8 +4579,8 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>79</v>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C11">
         <v>18639</v>
@@ -4076,7 +4597,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>9979</v>
@@ -4123,7 +4644,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <f>SUM(E11:E14)</f>
         <v>43215</v>
       </c>
@@ -4135,872 +4656,970 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <v>2441.5500000000002</v>
+      </c>
+      <c r="F2" s="16">
+        <v>43408</v>
+      </c>
+      <c r="G2" s="16">
+        <v>43438</v>
+      </c>
+      <c r="H2" s="15">
+        <v>43104</v>
+      </c>
+      <c r="I2" s="15">
+        <v>43135</v>
+      </c>
+      <c r="J2" s="15">
+        <v>43163</v>
+      </c>
+      <c r="K2" s="15">
+        <v>43194</v>
+      </c>
+      <c r="N2">
+        <f>E2*6</f>
+        <v>14649.300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>3193.56</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16">
+        <v>43438</v>
+      </c>
+      <c r="H3" s="15">
+        <v>43104</v>
+      </c>
+      <c r="I3" s="15">
+        <v>43135</v>
+      </c>
+      <c r="J3" s="15">
+        <v>43163</v>
+      </c>
+      <c r="K3" s="15">
+        <v>43194</v>
+      </c>
+      <c r="L3" s="15">
+        <v>43224</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N28" si="0">E3*6</f>
+        <v>19161.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2">
-        <v>2441.5500000000002</v>
-      </c>
-      <c r="D2" s="21">
-        <v>43408</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="E4">
+        <v>9499</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16">
         <v>43438</v>
       </c>
-      <c r="F2" s="19">
+      <c r="H4" s="15">
         <v>43104</v>
       </c>
-      <c r="G2" s="19">
+      <c r="I4" s="15">
         <v>43135</v>
       </c>
-      <c r="H2" s="19">
+      <c r="J4" s="15">
         <v>43163</v>
       </c>
-      <c r="I2" s="19">
+      <c r="K4" s="15">
         <v>43194</v>
       </c>
-      <c r="L2">
-        <f>C2*6</f>
-        <v>14649.300000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3">
-        <v>3193.56</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="21">
-        <v>43438</v>
-      </c>
-      <c r="F3" s="19">
-        <v>43104</v>
-      </c>
-      <c r="G3" s="19">
-        <v>43135</v>
-      </c>
-      <c r="H3" s="19">
-        <v>43163</v>
-      </c>
-      <c r="I3" s="19">
-        <v>43194</v>
-      </c>
-      <c r="J3" s="19">
+      <c r="L4" s="15">
         <v>43224</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L28" si="0">C3*6</f>
-        <v>19161.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4">
-        <v>9499</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="21">
-        <v>43438</v>
-      </c>
-      <c r="F4" s="19">
-        <v>43104</v>
-      </c>
-      <c r="G4" s="19">
-        <v>43135</v>
-      </c>
-      <c r="H4" s="19">
-        <v>43163</v>
-      </c>
-      <c r="I4" s="19">
-        <v>43194</v>
-      </c>
-      <c r="J4" s="19">
-        <v>43224</v>
-      </c>
-      <c r="L4">
+      <c r="N4">
         <f t="shared" si="0"/>
         <v>56994</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5">
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5">
         <v>7709.15</v>
       </c>
-      <c r="D5" s="21">
+      <c r="F5" s="16">
         <v>43408</v>
       </c>
-      <c r="E5" s="22">
+      <c r="G5" s="17">
         <v>43438</v>
       </c>
-      <c r="F5" s="19">
+      <c r="H5" s="15">
         <v>43104</v>
       </c>
-      <c r="L5">
-        <f>C5*3</f>
+      <c r="N5">
+        <f>E5*3</f>
         <v>23127.449999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6">
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6">
         <v>1333.12</v>
       </c>
-      <c r="D6" s="21">
+      <c r="F6" s="16">
         <v>43426</v>
       </c>
-      <c r="E6" s="19">
+      <c r="G6" s="15">
         <v>43456</v>
       </c>
-      <c r="F6" s="19">
+      <c r="H6" s="15">
         <v>43487</v>
       </c>
-      <c r="G6" s="19">
+      <c r="I6" s="15">
         <v>43518</v>
       </c>
-      <c r="H6" s="19">
+      <c r="J6" s="15">
         <v>43546</v>
       </c>
-      <c r="I6" s="19">
+      <c r="K6" s="15">
         <v>43577</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>7998.7199999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7">
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
         <v>2248.17</v>
       </c>
-      <c r="D7" s="21">
+      <c r="F7" s="16">
         <v>43426</v>
       </c>
-      <c r="E7" s="19">
+      <c r="G7" s="15">
         <v>43456</v>
       </c>
-      <c r="F7" s="19">
+      <c r="H7" s="15">
         <v>43487</v>
       </c>
-      <c r="G7" s="19">
+      <c r="I7" s="15">
         <v>43518</v>
       </c>
-      <c r="H7" s="19">
+      <c r="J7" s="15">
         <v>43546</v>
       </c>
-      <c r="I7" s="19">
+      <c r="K7" s="15">
         <v>43577</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>13489.02</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>8</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <f>13163+9959</f>
         <v>23122</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8">
         <v>3082.83</v>
       </c>
-      <c r="D8" s="21">
+      <c r="F8" s="16">
         <v>43426</v>
       </c>
-      <c r="E8" s="19">
+      <c r="G8" s="15">
         <v>43456</v>
       </c>
-      <c r="F8" s="19">
+      <c r="H8" s="15">
         <v>43487</v>
       </c>
-      <c r="G8" s="19">
+      <c r="I8" s="15">
         <v>43518</v>
       </c>
-      <c r="H8" s="19">
+      <c r="J8" s="15">
         <v>43546</v>
       </c>
-      <c r="I8" s="19">
+      <c r="K8" s="15">
         <v>43577</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>18496.98</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>21</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <f>16989+8543+660</f>
         <v>26192</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9">
         <v>3666.33</v>
       </c>
-      <c r="D9" s="21">
+      <c r="F9" s="16">
         <v>43426</v>
       </c>
-      <c r="E9" s="19">
+      <c r="G9" s="15">
         <v>43456</v>
       </c>
-      <c r="F9" s="19">
+      <c r="H9" s="15">
         <v>43487</v>
       </c>
-      <c r="G9" s="19">
+      <c r="I9" s="15">
         <v>43518</v>
       </c>
-      <c r="H9" s="19">
+      <c r="J9" s="15">
         <v>43546</v>
       </c>
-      <c r="I9" s="19">
+      <c r="K9" s="15">
         <v>43577</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>21997.98</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>17</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>16417</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10">
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
         <v>2098.4899999999998</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="21">
+      <c r="F10" s="1"/>
+      <c r="G10" s="16">
         <v>43435</v>
       </c>
-      <c r="F10" s="19">
+      <c r="H10" s="15">
         <v>43466</v>
       </c>
-      <c r="G10" s="19">
+      <c r="I10" s="15">
         <v>43497</v>
       </c>
-      <c r="H10" s="19">
+      <c r="J10" s="15">
         <v>43525</v>
       </c>
-      <c r="I10" s="19">
+      <c r="K10" s="15">
         <v>43556</v>
       </c>
-      <c r="J10" s="19">
+      <c r="L10" s="15">
         <v>43586</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>12590.939999999999</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>6</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <f>7709*2+2916*2</f>
         <v>21250</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11">
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11">
         <v>2248.17</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="21">
+      <c r="F11" s="1"/>
+      <c r="G11" s="16">
         <v>43435</v>
       </c>
-      <c r="F11" s="19">
+      <c r="H11" s="15">
         <v>43466</v>
       </c>
-      <c r="G11" s="19">
+      <c r="I11" s="15">
         <v>43497</v>
       </c>
-      <c r="H11" s="19">
+      <c r="J11" s="15">
         <v>43525</v>
       </c>
-      <c r="I11" s="19">
+      <c r="K11" s="15">
         <v>43556</v>
       </c>
-      <c r="J11" s="19">
+      <c r="L11" s="15">
         <v>43586</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>13489.02</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>11</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>247500</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12">
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12">
         <v>3666.33</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="21">
+      <c r="F12" s="1"/>
+      <c r="G12" s="16">
         <v>43435</v>
       </c>
-      <c r="F12" s="19">
+      <c r="H12" s="15">
         <v>43466</v>
       </c>
-      <c r="G12" s="19">
+      <c r="I12" s="15">
         <v>43497</v>
       </c>
-      <c r="H12" s="19">
+      <c r="J12" s="15">
         <v>43525</v>
       </c>
-      <c r="I12" s="19">
+      <c r="K12" s="15">
         <v>43556</v>
       </c>
-      <c r="J12" s="19">
+      <c r="L12" s="15">
         <v>43586</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>21997.98</v>
       </c>
-      <c r="P12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12">
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12">
         <v>223500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13">
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13">
         <v>5297.63</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="21">
+      <c r="F13" s="1"/>
+      <c r="G13" s="16">
         <v>43435</v>
       </c>
-      <c r="F13" s="19">
+      <c r="H13" s="15">
         <v>43466</v>
       </c>
-      <c r="G13" s="19">
+      <c r="I13" s="15">
         <v>43497</v>
       </c>
-      <c r="H13" s="19">
+      <c r="J13" s="15">
         <v>43525</v>
       </c>
-      <c r="I13" s="19">
+      <c r="K13" s="15">
         <v>43556</v>
       </c>
-      <c r="J13" s="19">
+      <c r="L13" s="15">
         <v>43586</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>31785.78</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>19</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>100000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14">
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14">
         <v>3106.63</v>
       </c>
-      <c r="D14" s="21">
+      <c r="F14" s="16">
         <v>43408</v>
       </c>
-      <c r="E14" s="21">
+      <c r="G14" s="16">
         <v>43438</v>
       </c>
-      <c r="F14" s="19">
+      <c r="H14" s="15">
         <v>43104</v>
       </c>
-      <c r="G14" s="19">
+      <c r="I14" s="15">
         <v>43135</v>
       </c>
-      <c r="H14" s="19">
+      <c r="J14" s="15">
         <v>43163</v>
       </c>
-      <c r="I14" s="19">
+      <c r="K14" s="15">
         <v>43194</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <f t="shared" si="0"/>
         <v>18639.78</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>16</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>32385</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15">
         <v>4357.45</v>
       </c>
-      <c r="D15" s="21">
+      <c r="F15" s="16">
         <v>43408</v>
       </c>
-      <c r="E15" s="21">
+      <c r="G15" s="16">
         <v>43438</v>
       </c>
-      <c r="F15" s="21">
+      <c r="H15" s="16">
         <v>43104</v>
       </c>
-      <c r="G15" s="19">
+      <c r="I15" s="15">
         <v>43135</v>
       </c>
-      <c r="H15" s="19">
+      <c r="J15" s="15">
         <v>43163</v>
       </c>
-      <c r="I15" s="19">
+      <c r="K15" s="15">
         <v>43194</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>26144.699999999997</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>21843</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16">
         <v>3504.32</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="21">
+      <c r="F16" s="1"/>
+      <c r="G16" s="16">
         <v>43438</v>
       </c>
-      <c r="F16" s="21">
+      <c r="H16" s="16">
         <v>43104</v>
       </c>
-      <c r="G16" s="19">
+      <c r="I16" s="15">
         <v>43135</v>
       </c>
-      <c r="H16" s="19">
+      <c r="J16" s="15">
         <v>43163</v>
       </c>
-      <c r="I16" s="19">
+      <c r="K16" s="15">
         <v>43194</v>
       </c>
-      <c r="J16" s="19">
+      <c r="L16" s="15">
         <v>43224</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <f t="shared" si="0"/>
         <v>21025.920000000002</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>19394</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17">
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17">
         <v>1949.67</v>
       </c>
-      <c r="D17" s="21">
+      <c r="F17" s="16">
         <v>43408</v>
       </c>
-      <c r="E17" s="21">
+      <c r="G17" s="16">
         <v>43438</v>
       </c>
-      <c r="F17" s="19">
+      <c r="H17" s="15">
         <v>43104</v>
       </c>
-      <c r="G17" s="19">
+      <c r="I17" s="15">
         <v>43135</v>
       </c>
-      <c r="H17" s="19">
+      <c r="J17" s="15">
         <v>43163</v>
       </c>
-      <c r="I17" s="19">
+      <c r="K17" s="15">
         <v>43194</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <f t="shared" si="0"/>
         <v>11698.02</v>
       </c>
-      <c r="Q17" s="7">
-        <f>SUM(Q7:Q16)</f>
+      <c r="S17" s="5">
+        <f>SUM(S7:S16)</f>
         <v>731603</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18">
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18">
         <v>1199.71</v>
       </c>
-      <c r="D18" s="21">
+      <c r="F18" s="16">
         <v>43408</v>
       </c>
-      <c r="E18" s="21">
+      <c r="G18" s="16">
         <v>43438</v>
       </c>
-      <c r="F18" s="19">
+      <c r="H18" s="15">
         <v>43104</v>
       </c>
-      <c r="G18" s="19">
+      <c r="I18" s="15">
         <v>43135</v>
       </c>
-      <c r="H18" s="19">
+      <c r="J18" s="15">
         <v>43163</v>
       </c>
-      <c r="I18" s="19">
+      <c r="K18" s="15">
         <v>43194</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <f t="shared" si="0"/>
         <v>7198.26</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19">
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19">
         <v>1216.49</v>
       </c>
-      <c r="D19" s="21">
+      <c r="F19" s="16">
         <v>43408</v>
       </c>
-      <c r="E19" s="21">
+      <c r="G19" s="16">
         <v>43438</v>
       </c>
-      <c r="F19" s="19">
+      <c r="H19" s="15">
         <v>43104</v>
       </c>
-      <c r="G19" s="19">
+      <c r="I19" s="15">
         <v>43135</v>
       </c>
-      <c r="H19" s="19">
+      <c r="J19" s="15">
         <v>43163</v>
       </c>
-      <c r="I19" s="19">
+      <c r="K19" s="15">
         <v>43194</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <f t="shared" si="0"/>
         <v>7298.9400000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20">
         <v>5666.16</v>
       </c>
-      <c r="E20" s="21">
+      <c r="G20" s="16">
         <v>43438</v>
       </c>
-      <c r="F20" s="19">
+      <c r="H20" s="15">
         <v>43104</v>
       </c>
-      <c r="G20" s="19">
+      <c r="I20" s="15">
         <v>43135</v>
       </c>
-      <c r="H20" s="19">
+      <c r="J20" s="15">
         <v>43163</v>
       </c>
-      <c r="I20" s="19">
+      <c r="K20" s="15">
         <v>43194</v>
       </c>
-      <c r="J20" s="19">
+      <c r="L20" s="15">
         <v>43224</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <f t="shared" si="0"/>
         <v>33996.959999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21">
         <v>1766.48</v>
       </c>
-      <c r="E21" s="21">
+      <c r="G21" s="16">
         <v>43438</v>
       </c>
-      <c r="F21" s="19">
+      <c r="H21" s="15">
         <v>43104</v>
       </c>
-      <c r="G21" s="19">
+      <c r="I21" s="15">
         <v>43135</v>
       </c>
-      <c r="H21" s="19">
+      <c r="J21" s="15">
         <v>43163</v>
       </c>
-      <c r="I21" s="19">
+      <c r="K21" s="15">
         <v>43194</v>
       </c>
-      <c r="J21" s="19">
+      <c r="L21" s="15">
         <v>43224</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <f t="shared" si="0"/>
         <v>10598.880000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22">
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22">
         <v>1649.85</v>
       </c>
-      <c r="E22" s="21">
+      <c r="G22" s="16">
         <v>43438</v>
       </c>
-      <c r="F22" s="19">
+      <c r="H22" s="15">
         <v>43104</v>
       </c>
-      <c r="G22" s="19">
+      <c r="I22" s="15">
         <v>43135</v>
       </c>
-      <c r="H22" s="19">
+      <c r="J22" s="15">
         <v>43163</v>
       </c>
-      <c r="I22" s="19">
+      <c r="K22" s="15">
         <v>43194</v>
       </c>
-      <c r="J22" s="19">
+      <c r="L22" s="15">
         <v>43224</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <f t="shared" si="0"/>
         <v>9899.0999999999985</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <f>19000/6</f>
         <v>3166.6666666666665</v>
       </c>
-      <c r="F24" s="19">
+      <c r="H24" s="15">
         <v>43104</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <f t="shared" si="0"/>
         <v>19000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <f>17000/6</f>
         <v>2833.3333333333335</v>
       </c>
-      <c r="F25" s="19">
+      <c r="H25" s="15">
         <v>43104</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <f>17000/6</f>
         <v>2833.3333333333335</v>
       </c>
-      <c r="E26" s="19">
+      <c r="G26" s="15">
         <v>43456</v>
       </c>
-      <c r="F26" s="19">
+      <c r="H26" s="15">
         <v>43122</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27">
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
         <f>28498/6</f>
         <v>4749.666666666667</v>
       </c>
-      <c r="F27" s="19">
+      <c r="H27" s="15">
         <v>43104</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <f t="shared" si="0"/>
         <v>28498</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <f>17500/6</f>
         <v>2916.6666666666665</v>
       </c>
-      <c r="E28" s="22">
+      <c r="G28" s="17">
         <v>43438</v>
       </c>
-      <c r="F28" s="19">
+      <c r="H28" s="15">
         <v>43104</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L29" s="7">
-        <f>SUM(L2:L28)</f>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N29" s="5">
+        <f>SUM(N2:N28)</f>
         <v>501277.09000000008</v>
       </c>
     </row>
@@ -5013,7 +5632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -5025,59 +5644,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>129</v>
+      <c r="C1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>15993</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>11993</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>7395</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -5088,52 +5707,52 @@
         <v>3960</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>2890</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>5262</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>29999</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -5144,43 +5763,43 @@
         <v>7295</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B10">
         <v>13794</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>1412</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>128</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>53800</v>
@@ -5188,13 +5807,13 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>128</v>
+      <c r="D12" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>60000</v>
@@ -5202,13 +5821,13 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>128</v>
+      <c r="D13" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>30000</v>
@@ -5216,13 +5835,13 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>128</v>
+      <c r="D14" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>30000</v>
@@ -5230,13 +5849,13 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>128</v>
+      <c r="D15" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <v>22000</v>
@@ -5244,13 +5863,13 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>128</v>
+      <c r="D16" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B17">
         <v>1699</v>
@@ -5258,13 +5877,13 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>128</v>
+      <c r="D17" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>4000</v>
@@ -5272,13 +5891,13 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>128</v>
+      <c r="D18" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <v>12137</v>
@@ -5286,13 +5905,13 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>128</v>
+      <c r="D19" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>6686</v>
@@ -5300,13 +5919,13 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>128</v>
+      <c r="D20" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B21">
         <v>70900</v>
@@ -5314,56 +5933,56 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>128</v>
+      <c r="D21" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B22">
         <v>30000</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>128</v>
+      <c r="D22" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B23">
         <v>18000</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>128</v>
+      <c r="D23" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B24">
         <v>4000</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>128</v>
+      <c r="D24" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B25">
         <v>5000</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>128</v>
+      <c r="D25" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <f ca="1">SUM(B2:B26)</f>
         <v>448215</v>
       </c>

--- a/business/online_details.xlsx
+++ b/business/online_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="450" windowWidth="20730" windowHeight="7830" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="450" windowWidth="20730" windowHeight="7830" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="item_order_update" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +745,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -828,6 +834,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3362,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8:W20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3468,7 +3476,7 @@
       <c r="K3" s="14">
         <v>43194</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="14">
         <v>43224</v>
       </c>
       <c r="N3">
@@ -3476,8 +3484,7 @@
         <v>19161.36</v>
       </c>
       <c r="O3">
-        <f>E3*1</f>
-        <v>3193.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -3509,16 +3516,15 @@
       <c r="K4" s="14">
         <v>43194</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="14">
         <v>43224</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N3:N31" si="0">E4*6</f>
+        <f t="shared" ref="N4:N31" si="0">E4*6</f>
         <v>56994</v>
       </c>
       <c r="O4">
-        <f>E4*1</f>
-        <v>9499</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>9600</v>
@@ -3582,10 +3588,10 @@
       <c r="I6" s="14">
         <v>43518</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="14">
         <v>43546</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="14">
         <v>43577</v>
       </c>
       <c r="N6">
@@ -3593,8 +3599,7 @@
         <v>7998.7199999999993</v>
       </c>
       <c r="O6">
-        <f>E6*2</f>
-        <v>2666.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -3622,10 +3627,10 @@
       <c r="I7" s="14">
         <v>43518</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="14">
         <v>43546</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <v>43577</v>
       </c>
       <c r="N7">
@@ -3633,8 +3638,7 @@
         <v>13489.02</v>
       </c>
       <c r="O7">
-        <f>E7*2</f>
-        <v>4496.34</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -3667,10 +3671,10 @@
       <c r="I8" s="14">
         <v>43518</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="14">
         <v>43546</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <v>43577</v>
       </c>
       <c r="N8">
@@ -3678,8 +3682,7 @@
         <v>18496.98</v>
       </c>
       <c r="O8">
-        <f>E8*2</f>
-        <v>6165.66</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -3715,10 +3718,10 @@
       <c r="I9" s="14">
         <v>43518</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <v>43546</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <v>43577</v>
       </c>
       <c r="N9">
@@ -3726,8 +3729,7 @@
         <v>21997.98</v>
       </c>
       <c r="O9">
-        <f>E9*2</f>
-        <v>7332.66</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>21000</v>
@@ -3761,16 +3763,16 @@
       <c r="H10" s="14">
         <v>43466</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="22">
         <v>43497</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="22">
         <v>43525</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="22">
         <v>43556</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="22">
         <v>43586</v>
       </c>
       <c r="N10">
@@ -3778,8 +3780,7 @@
         <v>12590.939999999999</v>
       </c>
       <c r="O10">
-        <f>E10*4</f>
-        <v>8393.9599999999991</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -3810,16 +3811,16 @@
       <c r="H11" s="14">
         <v>43466</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="22">
         <v>43497</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="22">
         <v>43525</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="22">
         <v>43556</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="22">
         <v>43586</v>
       </c>
       <c r="N11">
@@ -3827,8 +3828,7 @@
         <v>13489.02</v>
       </c>
       <c r="O11">
-        <f>E11*4</f>
-        <v>8992.68</v>
+        <v>0</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -3862,16 +3862,16 @@
       <c r="H12" s="14">
         <v>43466</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="22">
         <v>43497</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="22">
         <v>43525</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="22">
         <v>43556</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="22">
         <v>43586</v>
       </c>
       <c r="N12">
@@ -3879,8 +3879,7 @@
         <v>21997.98</v>
       </c>
       <c r="O12">
-        <f>E12*4</f>
-        <v>14665.32</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>2245</v>
@@ -3913,16 +3912,16 @@
       <c r="H13" s="14">
         <v>43466</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="22">
         <v>43497</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="22">
         <v>43525</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="22">
         <v>43556</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="22">
         <v>43586</v>
       </c>
       <c r="N13">
@@ -3930,8 +3929,7 @@
         <v>31785.78</v>
       </c>
       <c r="O13">
-        <f>E13*4</f>
-        <v>21190.52</v>
+        <v>0</v>
       </c>
       <c r="R13" s="3">
         <v>3665</v>
@@ -3966,22 +3964,22 @@
       <c r="H14" s="14">
         <v>43104</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="22">
         <v>43135</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="22">
         <v>43163</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="22">
         <v>43194</v>
       </c>
+      <c r="L14" s="23"/>
       <c r="N14">
         <f t="shared" si="0"/>
         <v>18639.78</v>
       </c>
       <c r="O14">
-        <f>E14*3</f>
-        <v>9319.89</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>5296</v>
@@ -4267,7 +4265,7 @@
       <c r="K20" s="14">
         <v>43194</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="14">
         <v>43224</v>
       </c>
       <c r="N20">
@@ -4275,8 +4273,7 @@
         <v>33996.959999999999</v>
       </c>
       <c r="O20">
-        <f>E20*1</f>
-        <v>5666.16</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
         <f>V18-V19</f>
@@ -4311,7 +4308,7 @@
       <c r="K21" s="14">
         <v>43194</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="14">
         <v>43224</v>
       </c>
       <c r="N21">
@@ -4319,8 +4316,7 @@
         <v>10598.880000000001</v>
       </c>
       <c r="O21">
-        <f>E21*1</f>
-        <v>1766.48</v>
+        <v>0</v>
       </c>
       <c r="R21" t="s">
         <v>175</v>
@@ -4357,7 +4353,7 @@
       <c r="K22" s="14">
         <v>43194</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="14">
         <v>43224</v>
       </c>
       <c r="N22">
@@ -4365,8 +4361,7 @@
         <v>9899.0999999999985</v>
       </c>
       <c r="O22">
-        <f>E22*1</f>
-        <v>1649.85</v>
+        <v>0</v>
       </c>
       <c r="R22" t="s">
         <v>176</v>
@@ -4412,7 +4407,7 @@
       <c r="K24" s="14">
         <v>43194</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="14">
         <v>43224</v>
       </c>
       <c r="N24">
@@ -4420,8 +4415,7 @@
         <v>19000</v>
       </c>
       <c r="O24">
-        <f>E24*2</f>
-        <v>6333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>3665</v>
@@ -4450,7 +4444,7 @@
       <c r="K25" s="14">
         <v>43194</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="14">
         <v>43224</v>
       </c>
       <c r="N25">
@@ -4458,8 +4452,7 @@
         <v>17000</v>
       </c>
       <c r="O25">
-        <f>E25*2</f>
-        <v>5666.666666666667</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>5296</v>
@@ -4485,13 +4478,13 @@
       <c r="I26" s="14">
         <v>43518</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="14">
         <v>43546</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="14">
         <v>43577</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="14">
         <v>43607</v>
       </c>
       <c r="N26">
@@ -4499,8 +4492,7 @@
         <v>17000</v>
       </c>
       <c r="O26">
-        <f>E26*3</f>
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>2098</v>
@@ -4535,7 +4527,7 @@
       <c r="K27" s="14">
         <v>43559</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="14">
         <v>43589</v>
       </c>
       <c r="M27" s="13">
@@ -4546,8 +4538,7 @@
         <v>28498</v>
       </c>
       <c r="O27">
-        <f>E27*2</f>
-        <v>9499.3333333333339</v>
+        <v>4749</v>
       </c>
       <c r="R27" t="s">
         <v>178</v>
@@ -4621,7 +4612,7 @@
       <c r="K29" s="14">
         <v>43559</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="14">
         <v>43589</v>
       </c>
       <c r="M29" s="13">
@@ -4632,8 +4623,8 @@
         <v>14999</v>
       </c>
       <c r="O29">
-        <f>E29*3</f>
-        <v>7499.5</v>
+        <f>E29*2</f>
+        <v>4999.666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -4690,7 +4681,7 @@
       <c r="K31" s="14">
         <v>43559</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="14">
         <v>43589</v>
       </c>
       <c r="M31" s="13">
@@ -4701,8 +4692,8 @@
         <v>9000</v>
       </c>
       <c r="O31">
-        <f>E31*5</f>
-        <v>7500</v>
+        <f>E31*3</f>
+        <v>4500</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -4725,7 +4716,7 @@
       <c r="K32" s="14">
         <v>43559</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="14">
         <v>43589</v>
       </c>
       <c r="M32" s="13">
@@ -4743,7 +4734,7 @@
       </c>
       <c r="O33" s="4">
         <f>SUM(O2:O31)</f>
-        <v>153501.47333333336</v>
+        <v>17752.986666666668</v>
       </c>
     </row>
     <row r="34" spans="3:15">
@@ -4769,13 +4760,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4883,7 +4875,7 @@
         <v>76</v>
       </c>
       <c r="B8">
-        <v>29999</v>
+        <v>2999</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -5120,8 +5112,8 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="5">
-        <f ca="1">SUM(B2:B26)</f>
-        <v>448215</v>
+        <f>SUM(B2:B25)</f>
+        <v>421215</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F9" si="0">D3*E3</f>
         <v>1650</v>
       </c>
     </row>
@@ -5427,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F20" si="1">D13*E13</f>
+        <f t="shared" ref="F13:F19" si="1">D13*E13</f>
         <v>9498</v>
       </c>
     </row>
@@ -5574,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/business/online_details.xlsx
+++ b/business/online_details.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="450" windowWidth="20730" windowHeight="7830" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="450" windowWidth="19420" windowHeight="7830" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="item_order_update" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">item_order_update!$A$1:$M$64</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="207">
   <si>
     <t>user</t>
   </si>
@@ -599,9 +599,6 @@
   </si>
   <si>
     <t>amol card</t>
-  </si>
-  <si>
-    <t>ca</t>
   </si>
   <si>
     <t>card udar for mobile purchase</t>
@@ -652,8 +649,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +923,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -960,6 +958,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1135,32 +1134,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.75" customHeight="1">
+    <row r="1" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C3" s="3"/>
       <c r="D3" s="18" t="s">
         <v>101</v>
@@ -1249,7 +1248,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>7004104922</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C7" s="3"/>
       <c r="D7" s="18" t="s">
         <v>101</v>
@@ -1354,7 +1353,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C12" s="3"/>
       <c r="D12" s="18" t="s">
         <v>102</v>
@@ -1490,7 +1489,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="5" customFormat="1">
+    <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>7004104922</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="5" customFormat="1">
+    <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>7004104922</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
       <c r="D20" s="18" t="s">
         <v>102</v>
@@ -1709,7 +1708,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>16</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C23" s="3"/>
       <c r="D23" s="18" t="s">
         <v>101</v>
@@ -1774,7 +1773,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C25" s="3"/>
       <c r="D25" s="18" t="s">
         <v>101</v>
@@ -1818,7 +1817,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -1848,7 +1847,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -1873,7 +1872,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C28" s="3"/>
       <c r="D28" s="18" t="s">
         <v>101</v>
@@ -1890,7 +1889,7 @@
       <c r="I28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>21</v>
       </c>
@@ -1920,7 +1919,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C30" s="3"/>
       <c r="D30" s="18" t="s">
         <v>101</v>
@@ -1937,7 +1936,7 @@
       <c r="I30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C31" s="3"/>
       <c r="D31" s="18" t="s">
         <v>101</v>
@@ -1954,7 +1953,7 @@
       <c r="I31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>22</v>
       </c>
@@ -1984,7 +1983,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C33" s="3"/>
       <c r="D33" s="18" t="s">
         <v>101</v>
@@ -2001,7 +2000,7 @@
       <c r="I33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>23</v>
       </c>
@@ -2031,7 +2030,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C35" s="3"/>
       <c r="D35" s="18" t="s">
         <v>102</v>
@@ -2047,7 +2046,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>24</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>25</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>26</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1">
+    <row r="39" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D39" s="5" t="s">
         <v>101</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>27</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C41" s="3"/>
       <c r="D41" s="18" t="s">
         <v>101</v>
@@ -2185,7 +2184,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C42" s="3"/>
       <c r="D42" s="18" t="s">
         <v>101</v>
@@ -2198,7 +2197,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C43" s="3"/>
       <c r="D43" s="18" t="s">
         <v>101</v>
@@ -2211,7 +2210,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C44" s="3"/>
       <c r="D44" s="18" t="s">
         <v>101</v>
@@ -2224,7 +2223,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>28</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C46" s="3"/>
       <c r="D46" s="18" t="s">
         <v>101</v>
@@ -2265,7 +2264,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>29</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C48" s="3"/>
       <c r="D48" s="18" t="s">
         <v>101</v>
@@ -2303,7 +2302,7 @@
         <v>9499</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>30</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>31</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>32</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>33</v>
       </c>
@@ -2391,7 +2390,7 @@
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C53" s="3"/>
       <c r="D53" s="18" t="s">
         <v>102</v>
@@ -2405,7 +2404,7 @@
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:13" s="3" customFormat="1">
+    <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>34</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>7903328917</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="3" customFormat="1">
+    <row r="55" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D55" s="18" t="s">
         <v>101</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="3" customFormat="1">
+    <row r="56" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D56" s="18" t="s">
         <v>101</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="3" customFormat="1">
+    <row r="57" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>35</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>8002559782</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="3" customFormat="1">
+    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D58" s="18" t="s">
         <v>101</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="3" customFormat="1">
+    <row r="59" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>36</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="3" customFormat="1">
+    <row r="60" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D60" s="3" t="s">
         <v>102</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>8499</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>37</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>9122200271</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
         <v>102</v>
@@ -2621,7 +2620,7 @@
         <v>8499</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>38</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C64" s="3"/>
       <c r="D64" s="18" t="s">
         <v>102</v>
@@ -2649,7 +2648,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>39</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>40</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C67" s="3"/>
       <c r="D67" s="18"/>
     </row>
@@ -2731,25 +2730,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>45</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>14999</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>8999</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>18990</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3041,7 +3040,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>18990</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>11347</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>14999</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>15990</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3330,7 +3329,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D36" s="2">
         <f>SUM(D2:D35)</f>
         <v>375518</v>
@@ -3367,24 +3366,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>15418</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4041,7 +4040,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>161000</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>65648</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>5296</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>58952</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>4999.666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4727,7 +4726,7 @@
         <v>8827.5</v>
       </c>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.35">
       <c r="N33" s="5">
         <f>SUM(N2:N28)</f>
         <v>501277.09000000008</v>
@@ -4737,16 +4736,16 @@
         <v>17752.986666666668</v>
       </c>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.35">
       <c r="N34" t="s">
         <v>171</v>
       </c>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="3:15">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.35">
       <c r="O35" s="3"/>
     </row>
-    <row r="40" spans="3:15">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -4757,22 +4756,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.25" customHeight="1">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>79</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21">
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -4940,7 +4939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21">
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21">
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21">
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21">
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21">
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21">
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21">
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21">
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21">
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -5077,7 +5076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21">
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21">
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -5099,7 +5098,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21">
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B26" s="5">
         <f>SUM(B2:B25)</f>
         <v>421215</v>
@@ -5123,25 +5122,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>43753</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>43772</v>
       </c>
@@ -5203,7 +5202,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>43776</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>43791</v>
       </c>
@@ -5245,7 +5244,7 @@
         <v>6330</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>43792</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>5720</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>43830</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>43479</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>43489</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>41895</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>43503</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>158340</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>43530</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>161070</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>31698</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>4496.34</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>6165.66</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -5511,7 +5510,7 @@
         <v>7332.66</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>29160.9</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4">
@@ -5549,7 +5548,7 @@
         <v>102753.9</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5563,24 +5562,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>90000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J5">
         <v>19900</v>
@@ -5681,7 +5680,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>100000</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J6">
         <v>20000</v>
@@ -5702,7 +5701,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>50000</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J7">
         <v>20000</v>
@@ -5723,7 +5722,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D12" s="1">
         <f>SUM(D2:D11)</f>
         <v>729000</v>
@@ -5805,7 +5804,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J13">
         <v>50000</v>
       </c>
@@ -5813,9 +5812,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1">
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -5826,24 +5825,24 @@
         <v>161000</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15">
         <f>102754+130992</f>
         <v>233746</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16">
         <v>197000</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>179</v>
       </c>
@@ -5855,88 +5854,88 @@
         <v>36746</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D18" s="5">
         <f>SUM(D12:D17)</f>
         <v>765746</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21">
         <v>33000</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22">
         <v>22000</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23">
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="5">
         <f>SUM(B21:B24)</f>
         <v>80600</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27">
         <v>284989</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28">
         <v>161000</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <f>SUM(B27:B28)</f>
         <v>445989</v>
@@ -5949,19 +5948,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>